--- a/resources/LeastSquaresCalculator.xlsx
+++ b/resources/LeastSquaresCalculator.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed7e15324f388481/Programming/GitHub/pf2gen/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="580" documentId="8_{2E2FD24B-79BF-4F94-A67B-3EB9B19539CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0643DA4A-0E5D-44ED-959A-63B8446901EC}"/>
+  <xr:revisionPtr revIDLastSave="768" documentId="8_{2E2FD24B-79BF-4F94-A67B-3EB9B19539CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0C59431-F029-4250-8E92-170C53025085}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" activeTab="3" xr2:uid="{177AE64E-D673-4BF4-B368-DF1B248075F6}"/>
+    <workbookView xWindow="15264" yWindow="-2094" windowWidth="23232" windowHeight="13152" xr2:uid="{177AE64E-D673-4BF4-B368-DF1B248075F6}"/>
   </bookViews>
   <sheets>
     <sheet name="3 Linear Functions" sheetId="2" r:id="rId1"/>
     <sheet name="Linear Edges, Stepwise Center" sheetId="4" r:id="rId2"/>
     <sheet name="Source Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Total Comparison" sheetId="5" r:id="rId4"/>
+    <sheet name="Individual Comparisons" sheetId="6" r:id="rId4"/>
+    <sheet name="Total Comparison" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="54">
   <si>
     <t>https://www.desmos.com/calculator/jr7r1y8lun</t>
   </si>
@@ -192,6 +193,36 @@
   <si>
     <t>Saves[Terrible]</t>
   </si>
+  <si>
+    <t>Attack Bonus</t>
+  </si>
+  <si>
+    <t>–1</t>
+  </si>
+  <si>
+    <t>AttackBonus[Extreme]</t>
+  </si>
+  <si>
+    <t>AttackBonus[High]</t>
+  </si>
+  <si>
+    <t>AttackBonus[Moderate]</t>
+  </si>
+  <si>
+    <t>AttackBonus[Low]</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Data 1</t>
+  </si>
+  <si>
+    <t>Data 2</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
 </sst>
 </file>
 
@@ -316,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -347,6 +378,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -598,82 +632,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="17">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="18">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="19">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="24">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -817,82 +851,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>18.166666666666668</c:v>
+                  <c:v>3.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.666666666666668</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.25</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.75</c:v>
+                  <c:v>6.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.25</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.75</c:v>
+                  <c:v>9.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.25</c:v>
+                  <c:v>10.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.75</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.25</c:v>
+                  <c:v>13.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.75</c:v>
+                  <c:v>14.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.25</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.75</c:v>
+                  <c:v>17.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.25</c:v>
+                  <c:v>18.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.75</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.25</c:v>
+                  <c:v>21.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38.75</c:v>
+                  <c:v>22.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40.25</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41.75</c:v>
+                  <c:v>25.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.25</c:v>
+                  <c:v>26.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44.75</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46.25</c:v>
+                  <c:v>29.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>47.75</c:v>
+                  <c:v>30.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49.3</c:v>
+                  <c:v>32.1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.8</c:v>
+                  <c:v>33.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52.3</c:v>
+                  <c:v>34.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>53.8</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,82 +1320,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>-0.16666666666666785</c:v>
+                  <c:v>0.16666666666666696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33333333333333215</c:v>
+                  <c:v>-0.33333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.25</c:v>
+                  <c:v>-0.33333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>0.33333333333333393</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25</c:v>
+                  <c:v>-0.33333333333333215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.25</c:v>
+                  <c:v>0.33333333333333393</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.25</c:v>
+                  <c:v>-0.33333333333333215</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25</c:v>
+                  <c:v>0.33333333333333393</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25</c:v>
+                  <c:v>-0.33333333333333215</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.25</c:v>
+                  <c:v>0.3333333333333357</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.25</c:v>
+                  <c:v>-0.33333333333333215</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.25</c:v>
+                  <c:v>0.3333333333333357</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25</c:v>
+                  <c:v>-0.33333333333333215</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.25</c:v>
+                  <c:v>0.3333333333333357</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.25</c:v>
+                  <c:v>-0.33333333333333215</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.25</c:v>
+                  <c:v>0.3333333333333357</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.29999999999999716</c:v>
+                  <c:v>-0.10000000000000142</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.20000000000000284</c:v>
+                  <c:v>-0.39999999999999858</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.29999999999999716</c:v>
+                  <c:v>0.29999999999999716</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.20000000000000284</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1777,82 +1811,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>52</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>54</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1996,82 +2030,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>18.166666666666668</c:v>
+                  <c:v>7.8333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.666666666666668</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666665</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.333333333333333</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6666666666666661</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9999999999999991</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3333333333333339</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.666666666666666</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.333333333333334</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.666666666666666</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.333333333333332</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.666666666666664</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.999999999999996</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.333333333333332</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.666666666666664</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.999999999999996</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.333333333333332</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26.666666666666664</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27.999999999999996</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49.3</c:v>
+                  <c:v>39.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.8</c:v>
+                  <c:v>40.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52.3</c:v>
+                  <c:v>42.3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>53.8</c:v>
+                  <c:v>43.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2465,70 +2499,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>-0.16666666666666785</c:v>
+                  <c:v>0.16666666666666607</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33333333333333215</c:v>
+                  <c:v>-0.33333333333333393</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.333333333333332</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.666666666666668</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.333333333333336</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.666666666666664</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.333333333333336</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.666666666666664</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.333333333333336</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.666666666666668</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.333333333333336</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.000000000000004</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.666666666666668</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.333333333333336</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.000000000000004</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.666666666666668</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.333333333333336</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20.000000000000004</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-0.29999999999999716</c:v>
@@ -5190,6 +5224,20 @@
 </table>
 </file>
 
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5662FB0F-DAB5-4F28-8D85-621C85FBFFA7}" name="AttackBonus" displayName="AttackBonus" ref="AC2:AG28" totalsRowShown="0">
+  <autoFilter ref="AC2:AG28" xr:uid="{5662FB0F-DAB5-4F28-8D85-621C85FBFFA7}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3CC413E0-6A29-41AC-B8CA-9F4A368FED97}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{7C13661F-9AF6-4FB9-848D-647FE957D6AE}" name="Extreme"/>
+    <tableColumn id="3" xr3:uid="{C1B85D46-1F17-49EF-A062-64A8D893675A}" name="High"/>
+    <tableColumn id="4" xr3:uid="{330CC834-B7CB-4C98-8815-35AC89D6D824}" name="Moderate"/>
+    <tableColumn id="5" xr3:uid="{19B97B35-7B2B-447C-8EF1-B4E3DFF261CC}" name="Low"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5489,8 +5537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D54A66F-6DB0-49F7-AD25-FFA561DBACA6}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5531,19 +5579,19 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <f>$H$2*A2 + $I$2</f>
-        <v>18.166666666666668</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D2">
         <f>B2-C2</f>
-        <v>-0.16666666666666785</v>
+        <v>0.16666666666666696</v>
       </c>
       <c r="E2">
         <f>ROUND(C2, 0)</f>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F27" si="0">B2-E2</f>
@@ -5554,7 +5602,7 @@
         <v>0.49999999999999994</v>
       </c>
       <c r="I2">
-        <v>18.666666666666668</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -5562,29 +5610,29 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <f>$H$2*A3 + $I$2</f>
-        <v>18.666666666666668</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D27" si="1">B3-C3</f>
-        <v>0.33333333333333215</v>
+        <v>-0.33333333333333304</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E27" si="2">ROUND(C3, 0)</f>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.28867513459481287</v>
+        <v>0.28867513459481292</v>
       </c>
       <c r="I3">
-        <v>0.23570226039551587</v>
+        <v>0.23570226039551592</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -5592,29 +5640,29 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <f>$J$8*A4 + $K$8</f>
-        <v>19.25</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <v>-0.33333333333333304</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.75000000000000011</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="I4">
-        <v>0.40824829046386302</v>
+        <v>0.40824829046386307</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -5622,26 +5670,26 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C23" si="3">$J$8*A5 + $K$8</f>
-        <v>20.75</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.33333333333333393</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.0000000000000009</v>
+        <v>2.9999999999999991</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5652,29 +5700,29 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <f t="shared" si="3"/>
-        <v>22.25</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.50000000000000011</v>
+        <v>0.5</v>
       </c>
       <c r="I6">
-        <v>0.16666666666666666</v>
+        <v>0.16666666666666671</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -5682,19 +5730,19 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
-        <v>23.75</v>
+        <v>9.3333333333333321</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>-0.33333333333333215</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -5710,19 +5758,19 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
-        <v>25.25</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <v>0.33333333333333393</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -5730,16 +5778,17 @@
       </c>
       <c r="H8" cm="1">
         <f t="array" ref="H8:I12">LINEST(B3:B23,A3:A23,1,1)</f>
-        <v>1.4870129870129869</v>
+        <v>1.3363636363636362</v>
       </c>
       <c r="I8">
-        <v>17.939393939393941</v>
+        <v>3.9696969696969706</v>
       </c>
       <c r="J8">
-        <v>1.5</v>
+        <f>4/3</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K8">
-        <v>17.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -5747,29 +5796,29 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>26.75</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.3352124481770785E-2</v>
+        <v>1.028800856323453E-2</v>
       </c>
       <c r="I9">
-        <v>0.15609236961112494</v>
+        <v>0.120271469713099</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -5777,29 +5826,29 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
-        <v>28.25</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <v>-0.33333333333333215</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.9984704627960701</v>
+        <v>0.99887519260400615</v>
       </c>
       <c r="I10">
-        <v>0.37050641788781624</v>
+        <v>0.2854806517994416</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -5807,26 +5856,26 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>29.75</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.33333333333333393</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12403.058091286051</v>
+        <v>16872.780821917833</v>
       </c>
       <c r="I11">
         <v>19</v>
@@ -5837,29 +5886,29 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <f t="shared" si="3"/>
-        <v>31.25</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1702.6298701298699</v>
+        <v>1375.1181818181817</v>
       </c>
       <c r="I12">
-        <v>2.6082251082251613</v>
+        <v>1.5484848484848461</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -5867,19 +5916,19 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <f t="shared" si="3"/>
-        <v>32.75</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>-0.33333333333333215</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -5895,19 +5944,19 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>34.25</v>
+        <v>18.666666666666664</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <v>0.3333333333333357</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -5915,10 +5964,10 @@
       </c>
       <c r="H14" cm="1">
         <f t="array" ref="H14:I18">LINEST(B23:B27,A23:A27,1,1)</f>
-        <v>1.5000000000000002</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="I14">
-        <v>17.79999999999999</v>
+        <v>4.8000000000000043</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -5926,29 +5975,29 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
-        <v>35.75</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9.9999999999999978E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I15">
-        <v>2.2045407685048599</v>
+        <v>2.2045407685048604</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -5956,29 +6005,29 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
-        <v>37.25</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <v>-0.33333333333333215</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.98684210526315785</v>
+        <v>0.98255813953488369</v>
       </c>
       <c r="I16">
-        <v>0.31622776601683789</v>
+        <v>0.31622776601683794</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -5986,26 +6035,26 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
-        <v>38.75</v>
+        <v>22.666666666666664</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.3333333333333357</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17">
-        <v>225.00000000000006</v>
+        <v>169.00000000000003</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -6016,29 +6065,29 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
-        <v>40.25</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22.499999999999996</v>
+        <v>16.900000000000002</v>
       </c>
       <c r="I18">
-        <v>0.29999999999999988</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -6046,19 +6095,19 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
-        <v>41.75</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>-0.33333333333333215</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -6070,19 +6119,19 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
-        <v>43.25</v>
+        <v>26.666666666666664</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <v>0.3333333333333357</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -6094,19 +6143,19 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <f t="shared" si="3"/>
-        <v>44.75</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -6118,19 +6167,19 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>46.25</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <v>-0.33333333333333215</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -6142,19 +6191,19 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <f t="shared" si="3"/>
-        <v>47.75</v>
+        <v>30.666666666666664</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.3333333333333357</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -6166,19 +6215,19 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <f>$H$14*A24 + $I$14</f>
-        <v>49.3</v>
+        <v>32.1</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>-0.29999999999999716</v>
+        <v>-0.10000000000000142</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -6190,19 +6239,19 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <f>$H$14*A25 + $I$14</f>
-        <v>50.8</v>
+        <v>33.4</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>0.20000000000000284</v>
+        <v>-0.39999999999999858</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -6214,19 +6263,19 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <f>$H$14*A26 + $I$14</f>
-        <v>52.3</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>-0.29999999999999716</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
@@ -6238,19 +6287,19 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <f>$H$14*A27 + $I$14</f>
-        <v>53.8</v>
+        <v>36</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>0.20000000000000284</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
@@ -6294,7 +6343,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6335,19 +6384,19 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <f>$H$2*A2 + $I$2</f>
-        <v>18.166666666666668</v>
+        <v>7.8333333333333339</v>
       </c>
       <c r="D2">
         <f>B2-C2</f>
-        <v>-0.16666666666666785</v>
+        <v>0.16666666666666607</v>
       </c>
       <c r="E2">
         <f>ROUND(C2, 0)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F27" si="0">B2-E2</f>
@@ -6358,7 +6407,7 @@
         <v>0.49999999999999994</v>
       </c>
       <c r="I2">
-        <v>18.666666666666668</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -6366,29 +6415,29 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <f>$H$2*A3 + $I$2</f>
-        <v>18.666666666666668</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D27" si="1">B3-C3</f>
-        <v>0.33333333333333215</v>
+        <v>-0.33333333333333393</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E27" si="2">ROUND(C3, 0)</f>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.28867513459481287</v>
+        <v>0.28867513459481292</v>
       </c>
       <c r="I3">
-        <v>0.23570226039551587</v>
+        <v>0.23570226039551592</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -6396,29 +6445,29 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <f>$J$8*A4 + $K$8</f>
-        <v>2.6666666666666665</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>16.333333333333332</v>
+        <v>-2</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="H4">
-        <v>0.75000000000000011</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="I4">
-        <v>0.40824829046386302</v>
+        <v>0.40824829046386307</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -6426,26 +6475,26 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C23" si="3">$J$8*A5 + $K$8</f>
-        <v>4</v>
+        <v>12.5</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>-1.5</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>-2</v>
       </c>
       <c r="H5">
-        <v>3.0000000000000009</v>
+        <v>2.9999999999999987</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6456,29 +6505,29 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <f t="shared" si="3"/>
-        <v>5.333333333333333</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
+        <v>-2</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>-2</v>
       </c>
       <c r="H6">
-        <v>0.50000000000000011</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="I6">
-        <v>0.16666666666666666</v>
+        <v>0.16666666666666671</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -6486,23 +6535,23 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
-        <v>6.6666666666666661</v>
+        <v>15.5</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>17.333333333333336</v>
+        <v>-1.5</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>-2</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>14</v>
@@ -6514,31 +6563,30 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
-        <v>7.9999999999999991</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>-2</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>-2</v>
       </c>
       <c r="J8" s="1">
-        <f>4/3</f>
-        <v>1.3333333333333333</v>
+        <f>1.5</f>
+        <v>1.5</v>
       </c>
       <c r="K8" s="1">
-        <f>1 + 1/3</f>
-        <v>1.3333333333333333</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -6546,23 +6594,23 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>9.3333333333333339</v>
+        <v>18.5</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>17.666666666666664</v>
+        <v>-1.5</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -6570,23 +6618,23 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
-        <v>10.666666666666666</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>17.333333333333336</v>
+        <v>-2</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -6594,23 +6642,23 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>21.5</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>-1.5</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -6618,23 +6666,23 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <f t="shared" si="3"/>
-        <v>13.333333333333334</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>17.666666666666664</v>
+        <v>-2</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -6642,23 +6690,23 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <f t="shared" si="3"/>
-        <v>14.666666666666666</v>
+        <v>24.5</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>18.333333333333336</v>
+        <v>-1.5</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>-2</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>12</v>
@@ -6670,30 +6718,30 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>-2</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>-2</v>
       </c>
       <c r="H14" cm="1">
         <f t="array" ref="H14:I18">LINEST(B23:B27,A23:A27,1,1)</f>
         <v>1.5000000000000002</v>
       </c>
       <c r="I14">
-        <v>17.79999999999999</v>
+        <v>7.7999999999999901</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -6701,23 +6749,23 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
-        <v>17.333333333333332</v>
+        <v>27.5</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>18.666666666666668</v>
+        <v>-1.5</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="H15">
         <v>9.9999999999999978E-2</v>
@@ -6731,23 +6779,23 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
-        <v>18.666666666666664</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>18.333333333333336</v>
+        <v>-2</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>-2</v>
       </c>
       <c r="H16">
         <v>0.98684210526315785</v>
@@ -6761,23 +6809,23 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
-        <v>19.999999999999996</v>
+        <v>30.5</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>19.000000000000004</v>
+        <v>-1.5</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="H17">
         <v>225.00000000000006</v>
@@ -6791,23 +6839,23 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
-        <v>21.333333333333332</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>18.666666666666668</v>
+        <v>-2</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="H18">
         <v>22.499999999999996</v>
@@ -6821,23 +6869,23 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
-        <v>22.666666666666664</v>
+        <v>33.5</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>19.333333333333336</v>
+        <v>-1.5</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -6845,23 +6893,23 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
-        <v>23.999999999999996</v>
+        <v>35</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>19.000000000000004</v>
+        <v>-2</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -6869,23 +6917,23 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <f t="shared" si="3"/>
-        <v>25.333333333333332</v>
+        <v>36.5</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>19.666666666666668</v>
+        <v>-1.5</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
@@ -6893,23 +6941,23 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>26.666666666666664</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>19.333333333333336</v>
+        <v>-2</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -6917,23 +6965,23 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <f t="shared" si="3"/>
-        <v>27.999999999999996</v>
+        <v>39.5</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>20.000000000000004</v>
+        <v>-1.5</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -6941,11 +6989,11 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <f>$H$14*A24 + $I$14</f>
-        <v>49.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
@@ -6953,7 +7001,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -6965,11 +7013,11 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <f>$H$14*A25 + $I$14</f>
-        <v>50.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
@@ -6977,7 +7025,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -6989,11 +7037,11 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <f>$H$14*A26 + $I$14</f>
-        <v>52.3</v>
+        <v>42.3</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
@@ -7001,7 +7049,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
@@ -7013,11 +7061,11 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <f>$H$14*A27 + $I$14</f>
-        <v>53.8</v>
+        <v>43.8</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
@@ -7025,7 +7073,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
@@ -7066,10 +7114,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ABC9C7-08C1-43A8-AE64-03BAF7ABAB34}">
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3:AG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7084,7 +7132,7 @@
     <col min="13" max="13" width="12.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
@@ -7123,8 +7171,15 @@
       <c r="Z1" s="12"/>
       <c r="AA1" s="12"/>
       <c r="AB1" s="12"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7209,8 +7264,23 @@
       <c r="AB2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -7295,8 +7365,23 @@
       <c r="AB3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD3">
+        <v>10</v>
+      </c>
+      <c r="AE3">
+        <v>8</v>
+      </c>
+      <c r="AF3">
+        <v>6</v>
+      </c>
+      <c r="AG3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -7381,8 +7466,23 @@
       <c r="AB4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>10</v>
+      </c>
+      <c r="AE4">
+        <v>8</v>
+      </c>
+      <c r="AF4">
+        <v>6</v>
+      </c>
+      <c r="AG4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7467,8 +7567,23 @@
       <c r="AB5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>11</v>
+      </c>
+      <c r="AE5">
+        <v>9</v>
+      </c>
+      <c r="AF5">
+        <v>7</v>
+      </c>
+      <c r="AG5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7553,8 +7668,23 @@
       <c r="AB6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>13</v>
+      </c>
+      <c r="AE6">
+        <v>11</v>
+      </c>
+      <c r="AF6">
+        <v>9</v>
+      </c>
+      <c r="AG6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7639,8 +7769,23 @@
       <c r="AB7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD7">
+        <v>14</v>
+      </c>
+      <c r="AE7">
+        <v>12</v>
+      </c>
+      <c r="AF7">
+        <v>10</v>
+      </c>
+      <c r="AG7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7725,8 +7870,23 @@
       <c r="AB8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC8" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD8">
+        <v>16</v>
+      </c>
+      <c r="AE8">
+        <v>14</v>
+      </c>
+      <c r="AF8">
+        <v>12</v>
+      </c>
+      <c r="AG8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7811,8 +7971,23 @@
       <c r="AB9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC9" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD9">
+        <v>17</v>
+      </c>
+      <c r="AE9">
+        <v>15</v>
+      </c>
+      <c r="AF9">
+        <v>13</v>
+      </c>
+      <c r="AG9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7897,8 +8072,23 @@
       <c r="AB10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC10" s="3">
+        <v>6</v>
+      </c>
+      <c r="AD10">
+        <v>19</v>
+      </c>
+      <c r="AE10">
+        <v>17</v>
+      </c>
+      <c r="AF10">
+        <v>15</v>
+      </c>
+      <c r="AG10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>7</v>
       </c>
@@ -7983,8 +8173,23 @@
       <c r="AB11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC11" s="3">
+        <v>7</v>
+      </c>
+      <c r="AD11">
+        <v>20</v>
+      </c>
+      <c r="AE11">
+        <v>18</v>
+      </c>
+      <c r="AF11">
+        <v>16</v>
+      </c>
+      <c r="AG11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>8</v>
       </c>
@@ -8069,8 +8274,23 @@
       <c r="AB12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC12" s="3">
+        <v>8</v>
+      </c>
+      <c r="AD12">
+        <v>22</v>
+      </c>
+      <c r="AE12">
+        <v>20</v>
+      </c>
+      <c r="AF12">
+        <v>18</v>
+      </c>
+      <c r="AG12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>9</v>
       </c>
@@ -8155,8 +8375,23 @@
       <c r="AB13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC13" s="3">
+        <v>9</v>
+      </c>
+      <c r="AD13">
+        <v>23</v>
+      </c>
+      <c r="AE13">
+        <v>21</v>
+      </c>
+      <c r="AF13">
+        <v>19</v>
+      </c>
+      <c r="AG13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10</v>
       </c>
@@ -8241,8 +8476,23 @@
       <c r="AB14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC14" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD14">
+        <v>25</v>
+      </c>
+      <c r="AE14">
+        <v>23</v>
+      </c>
+      <c r="AF14">
+        <v>21</v>
+      </c>
+      <c r="AG14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>11</v>
       </c>
@@ -8327,8 +8577,23 @@
       <c r="AB15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC15" s="3">
+        <v>11</v>
+      </c>
+      <c r="AD15">
+        <v>27</v>
+      </c>
+      <c r="AE15">
+        <v>24</v>
+      </c>
+      <c r="AF15">
+        <v>22</v>
+      </c>
+      <c r="AG15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>12</v>
       </c>
@@ -8413,8 +8678,23 @@
       <c r="AB16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC16" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD16">
+        <v>28</v>
+      </c>
+      <c r="AE16">
+        <v>26</v>
+      </c>
+      <c r="AF16">
+        <v>24</v>
+      </c>
+      <c r="AG16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>13</v>
       </c>
@@ -8499,8 +8779,23 @@
       <c r="AB17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC17" s="3">
+        <v>13</v>
+      </c>
+      <c r="AD17">
+        <v>29</v>
+      </c>
+      <c r="AE17">
+        <v>27</v>
+      </c>
+      <c r="AF17">
+        <v>25</v>
+      </c>
+      <c r="AG17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>14</v>
       </c>
@@ -8585,8 +8880,23 @@
       <c r="AB18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC18" s="3">
+        <v>14</v>
+      </c>
+      <c r="AD18">
+        <v>31</v>
+      </c>
+      <c r="AE18">
+        <v>29</v>
+      </c>
+      <c r="AF18">
+        <v>27</v>
+      </c>
+      <c r="AG18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>15</v>
       </c>
@@ -8671,8 +8981,23 @@
       <c r="AB19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC19" s="3">
+        <v>15</v>
+      </c>
+      <c r="AD19">
+        <v>32</v>
+      </c>
+      <c r="AE19">
+        <v>30</v>
+      </c>
+      <c r="AF19">
+        <v>28</v>
+      </c>
+      <c r="AG19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>16</v>
       </c>
@@ -8757,8 +9082,23 @@
       <c r="AB20">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC20" s="3">
+        <v>16</v>
+      </c>
+      <c r="AD20">
+        <v>34</v>
+      </c>
+      <c r="AE20">
+        <v>32</v>
+      </c>
+      <c r="AF20">
+        <v>30</v>
+      </c>
+      <c r="AG20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>17</v>
       </c>
@@ -8843,8 +9183,23 @@
       <c r="AB21">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC21" s="3">
+        <v>17</v>
+      </c>
+      <c r="AD21">
+        <v>35</v>
+      </c>
+      <c r="AE21">
+        <v>33</v>
+      </c>
+      <c r="AF21">
+        <v>31</v>
+      </c>
+      <c r="AG21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>18</v>
       </c>
@@ -8929,8 +9284,23 @@
       <c r="AB22">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC22" s="3">
+        <v>18</v>
+      </c>
+      <c r="AD22">
+        <v>37</v>
+      </c>
+      <c r="AE22">
+        <v>35</v>
+      </c>
+      <c r="AF22">
+        <v>33</v>
+      </c>
+      <c r="AG22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>19</v>
       </c>
@@ -9015,8 +9385,23 @@
       <c r="AB23">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC23" s="3">
+        <v>19</v>
+      </c>
+      <c r="AD23">
+        <v>38</v>
+      </c>
+      <c r="AE23">
+        <v>36</v>
+      </c>
+      <c r="AF23">
+        <v>34</v>
+      </c>
+      <c r="AG23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>20</v>
       </c>
@@ -9101,8 +9486,23 @@
       <c r="AB24">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC24" s="3">
+        <v>20</v>
+      </c>
+      <c r="AD24">
+        <v>40</v>
+      </c>
+      <c r="AE24">
+        <v>38</v>
+      </c>
+      <c r="AF24">
+        <v>36</v>
+      </c>
+      <c r="AG24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>21</v>
       </c>
@@ -9187,8 +9587,23 @@
       <c r="AB25">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC25" s="3">
+        <v>21</v>
+      </c>
+      <c r="AD25">
+        <v>41</v>
+      </c>
+      <c r="AE25">
+        <v>39</v>
+      </c>
+      <c r="AF25">
+        <v>37</v>
+      </c>
+      <c r="AG25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>22</v>
       </c>
@@ -9273,8 +9688,23 @@
       <c r="AB26">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC26" s="3">
+        <v>22</v>
+      </c>
+      <c r="AD26">
+        <v>43</v>
+      </c>
+      <c r="AE26">
+        <v>41</v>
+      </c>
+      <c r="AF26">
+        <v>39</v>
+      </c>
+      <c r="AG26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>23</v>
       </c>
@@ -9359,8 +9789,23 @@
       <c r="AB27">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC27" s="3">
+        <v>23</v>
+      </c>
+      <c r="AD27">
+        <v>44</v>
+      </c>
+      <c r="AE27">
+        <v>42</v>
+      </c>
+      <c r="AF27">
+        <v>40</v>
+      </c>
+      <c r="AG27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>24</v>
       </c>
@@ -9445,9 +9890,25 @@
       <c r="AB28">
         <v>32</v>
       </c>
+      <c r="AC28" s="3">
+        <v>24</v>
+      </c>
+      <c r="AD28">
+        <v>46</v>
+      </c>
+      <c r="AE28">
+        <v>44</v>
+      </c>
+      <c r="AF28">
+        <v>42</v>
+      </c>
+      <c r="AG28">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AC1:AG1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="L1:Q1"/>
@@ -9456,27 +9917,454 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DCADAC-8541-48FB-BAA1-5273F19572D3}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>B2-C2-$G$1</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D27" si="0">B3-C3-$G$1</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF57D4E-6500-4FDB-A0DC-2D4513C5186D}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.69140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.3046875" bestFit="1" customWidth="1"/>
@@ -9489,7 +10377,7 @@
     <col min="24" max="24" width="9.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>16</v>
       </c>
@@ -9559,2173 +10447,3008 @@
       <c r="X1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A2))</f>
+        <f t="array" aca="1" ref="C2" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A2)))))</f>
         <v>0</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A2))</f>
-        <v>1.31727259919567</v>
+        <f t="array" aca="1" ref="D2" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A2)))))</f>
+        <v>20</v>
       </c>
       <c r="E2" cm="1">
-        <f t="array" aca="1" ref="E2" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A2))</f>
-        <v>1.31727259919567</v>
+        <f t="array" aca="1" ref="E2" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A2)))))</f>
+        <v>20</v>
       </c>
       <c r="F2" cm="1">
-        <f t="array" aca="1" ref="F2" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A2))</f>
-        <v>2.468739467058648</v>
+        <f t="array" aca="1" ref="F2" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A2)))))</f>
+        <v>22</v>
       </c>
       <c r="G2" cm="1">
-        <f t="array" aca="1" ref="G2" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A2))</f>
-        <v>1.1461280327501031</v>
+        <f t="array" aca="1" ref="G2" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A2)))))</f>
+        <v>18</v>
       </c>
       <c r="H2" cm="1">
-        <f t="array" aca="1" ref="H2" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A2))</f>
-        <v>2.0176733920929233</v>
+        <f t="array" aca="1" ref="H2" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A2)))))</f>
+        <v>21</v>
       </c>
       <c r="I2" cm="1">
-        <f t="array" aca="1" ref="I2" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A2))</f>
-        <v>2.0554444947519057</v>
+        <f t="array" aca="1" ref="I2" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A2)))))</f>
+        <v>22</v>
       </c>
       <c r="J2" cm="1">
-        <f t="array" aca="1" ref="J2" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A2))</f>
-        <v>1.9870140543214601</v>
+        <f t="array" aca="1" ref="J2" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A2)))))</f>
+        <v>22</v>
       </c>
       <c r="K2" cm="1">
-        <f t="array" aca="1" ref="K2" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A2))</f>
-        <v>2.468739467058648</v>
+        <f t="array" aca="1" ref="K2" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A2)))))</f>
+        <v>22</v>
       </c>
       <c r="L2" cm="1">
-        <f t="array" aca="1" ref="L2" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A2))</f>
-        <v>9.9201695204068709</v>
+        <f t="array" aca="1" ref="L2" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A2)))))</f>
+        <v>24</v>
       </c>
       <c r="M2" cm="1">
-        <f t="array" aca="1" ref="M2" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A2))</f>
-        <v>9.8905250218125733</v>
+        <f t="array" aca="1" ref="M2" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A2)))))</f>
+        <v>24</v>
       </c>
       <c r="N2" cm="1">
-        <f t="array" aca="1" ref="N2" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A2))</f>
-        <v>10.563207890917681</v>
+        <f t="array" aca="1" ref="N2" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A2)))))</f>
+        <v>24</v>
       </c>
       <c r="O2" cm="1">
-        <f t="array" aca="1" ref="O2" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A2))</f>
-        <v>10.392376017540014</v>
+        <f t="array" aca="1" ref="O2" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A2)))))</f>
+        <v>24</v>
       </c>
       <c r="P2" cm="1">
-        <f t="array" aca="1" ref="P2" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A2))</f>
-        <v>1.2917581249035897</v>
+        <f t="array" aca="1" ref="P2" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A2)))))</f>
+        <v>20</v>
       </c>
       <c r="Q2" cm="1">
-        <f t="array" aca="1" ref="Q2" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A2))</f>
-        <v>1.2917581249035897</v>
+        <f t="array" aca="1" ref="Q2" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A2)))))</f>
+        <v>20</v>
       </c>
       <c r="R2" cm="1">
-        <f t="array" aca="1" ref="R2" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A2))</f>
-        <v>1.2917581249035897</v>
+        <f t="array" aca="1" ref="R2" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A2)))))</f>
+        <v>20</v>
       </c>
       <c r="S2" cm="1">
-        <f t="array" aca="1" ref="S2" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A2))</f>
-        <v>1.2917581249035897</v>
+        <f t="array" aca="1" ref="S2" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A2)))))</f>
+        <v>20</v>
       </c>
       <c r="T2" cm="1">
-        <f t="array" aca="1" ref="T2" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A2))</f>
-        <v>1.1461280327501031</v>
+        <f t="array" aca="1" ref="T2" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A2)))))</f>
+        <v>18</v>
       </c>
       <c r="U2" cm="1">
-        <f t="array" aca="1" ref="U2" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A2))</f>
-        <v>2.0176733920929233</v>
+        <f t="array" aca="1" ref="U2" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A2)))))</f>
+        <v>21</v>
       </c>
       <c r="V2" cm="1">
-        <f t="array" aca="1" ref="V2" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A2))</f>
-        <v>2.0554444947519057</v>
+        <f t="array" aca="1" ref="V2" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A2)))))</f>
+        <v>22</v>
       </c>
       <c r="W2" cm="1">
-        <f t="array" aca="1" ref="W2" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A2))</f>
-        <v>1.9870140543214601</v>
+        <f t="array" aca="1" ref="W2" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A2)))))</f>
+        <v>22</v>
       </c>
       <c r="X2" cm="1">
-        <f t="array" aca="1" ref="X2" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A2))</f>
-        <v>2.468739467058648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X2" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A2)))))</f>
+        <v>22</v>
+      </c>
+      <c r="Y2" cm="1">
+        <f t="array" aca="1" ref="Y2" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A2)))))</f>
+        <v>18</v>
+      </c>
+      <c r="Z2" cm="1">
+        <f t="array" aca="1" ref="Z2" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A2)))))</f>
+        <v>19</v>
+      </c>
+      <c r="AA2" cm="1">
+        <f t="array" aca="1" ref="AA2" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A2)))))</f>
+        <v>19</v>
+      </c>
+      <c r="AB2" cm="1">
+        <f t="array" aca="1" ref="AB2" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A2) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A2)))))</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A3))</f>
+        <f t="array" aca="1" ref="B3" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A3)))))</f>
         <v>0</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A3))</f>
-        <v>1.31727259919567</v>
+        <f t="array" aca="1" ref="D3" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A3)))))</f>
+        <v>20</v>
       </c>
       <c r="E3" cm="1">
-        <f t="array" aca="1" ref="E3" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A3))</f>
-        <v>1.31727259919567</v>
+        <f t="array" aca="1" ref="E3" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A3)))))</f>
+        <v>20</v>
       </c>
       <c r="F3" cm="1">
-        <f t="array" aca="1" ref="F3" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A3))</f>
-        <v>2.468739467058648</v>
+        <f t="array" aca="1" ref="F3" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A3)))))</f>
+        <v>22</v>
       </c>
       <c r="G3" cm="1">
-        <f t="array" aca="1" ref="G3" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A3))</f>
-        <v>1.1461280327501031</v>
+        <f t="array" aca="1" ref="G3" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A3)))))</f>
+        <v>18</v>
       </c>
       <c r="H3" cm="1">
-        <f t="array" aca="1" ref="H3" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A3))</f>
-        <v>2.0176733920929233</v>
+        <f t="array" aca="1" ref="H3" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A3)))))</f>
+        <v>21</v>
       </c>
       <c r="I3" cm="1">
-        <f t="array" aca="1" ref="I3" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A3))</f>
-        <v>2.0554444947519057</v>
+        <f t="array" aca="1" ref="I3" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A3)))))</f>
+        <v>22</v>
       </c>
       <c r="J3" cm="1">
-        <f t="array" aca="1" ref="J3" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A3))</f>
-        <v>1.9870140543214601</v>
+        <f t="array" aca="1" ref="J3" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A3)))))</f>
+        <v>22</v>
       </c>
       <c r="K3" cm="1">
-        <f t="array" aca="1" ref="K3" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A3))</f>
-        <v>2.468739467058648</v>
+        <f t="array" aca="1" ref="K3" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A3)))))</f>
+        <v>22</v>
       </c>
       <c r="L3" cm="1">
-        <f t="array" aca="1" ref="L3" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A3))</f>
-        <v>9.9201695204068709</v>
+        <f t="array" aca="1" ref="L3" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A3)))))</f>
+        <v>24</v>
       </c>
       <c r="M3" cm="1">
-        <f t="array" aca="1" ref="M3" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A3))</f>
-        <v>9.8905250218125733</v>
+        <f t="array" aca="1" ref="M3" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A3)))))</f>
+        <v>24</v>
       </c>
       <c r="N3" cm="1">
-        <f t="array" aca="1" ref="N3" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A3))</f>
-        <v>10.563207890917681</v>
+        <f t="array" aca="1" ref="N3" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A3)))))</f>
+        <v>24</v>
       </c>
       <c r="O3" cm="1">
-        <f t="array" aca="1" ref="O3" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A3))</f>
-        <v>10.392376017540014</v>
+        <f t="array" aca="1" ref="O3" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A3)))))</f>
+        <v>24</v>
       </c>
       <c r="P3" cm="1">
-        <f t="array" aca="1" ref="P3" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A3))</f>
-        <v>1.2917581249035897</v>
+        <f t="array" aca="1" ref="P3" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A3)))))</f>
+        <v>20</v>
       </c>
       <c r="Q3" cm="1">
-        <f t="array" aca="1" ref="Q3" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A3))</f>
-        <v>1.2917581249035897</v>
+        <f t="array" aca="1" ref="Q3" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A3)))))</f>
+        <v>20</v>
       </c>
       <c r="R3" cm="1">
-        <f t="array" aca="1" ref="R3" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A3))</f>
-        <v>1.2917581249035897</v>
+        <f t="array" aca="1" ref="R3" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A3)))))</f>
+        <v>20</v>
       </c>
       <c r="S3" cm="1">
-        <f t="array" aca="1" ref="S3" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A3))</f>
-        <v>1.2917581249035897</v>
+        <f t="array" aca="1" ref="S3" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A3)))))</f>
+        <v>20</v>
       </c>
       <c r="T3" cm="1">
-        <f t="array" aca="1" ref="T3" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A3))</f>
-        <v>1.1461280327501031</v>
+        <f t="array" aca="1" ref="T3" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A3)))))</f>
+        <v>18</v>
       </c>
       <c r="U3" cm="1">
-        <f t="array" aca="1" ref="U3" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A3))</f>
-        <v>2.0176733920929233</v>
+        <f t="array" aca="1" ref="U3" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A3)))))</f>
+        <v>21</v>
       </c>
       <c r="V3" cm="1">
-        <f t="array" aca="1" ref="V3" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A3))</f>
-        <v>2.0554444947519057</v>
+        <f t="array" aca="1" ref="V3" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A3)))))</f>
+        <v>22</v>
       </c>
       <c r="W3" cm="1">
-        <f t="array" aca="1" ref="W3" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A3))</f>
-        <v>1.9870140543214601</v>
+        <f t="array" aca="1" ref="W3" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A3)))))</f>
+        <v>22</v>
       </c>
       <c r="X3" cm="1">
-        <f t="array" aca="1" ref="X3" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A3))</f>
-        <v>2.468739467058648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X3" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A3)))))</f>
+        <v>22</v>
+      </c>
+      <c r="Y3" cm="1">
+        <f t="array" aca="1" ref="Y3" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A3)))))</f>
+        <v>18</v>
+      </c>
+      <c r="Z3" cm="1">
+        <f t="array" aca="1" ref="Z3" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A3)))))</f>
+        <v>19</v>
+      </c>
+      <c r="AA3" cm="1">
+        <f t="array" aca="1" ref="AA3" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A3)))))</f>
+        <v>19</v>
+      </c>
+      <c r="AB3" cm="1">
+        <f t="array" aca="1" ref="AB3" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A3) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A3)))))</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A4))</f>
-        <v>1.31727259919567</v>
+        <f t="array" aca="1" ref="B4" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A4)))))</f>
+        <v>20</v>
       </c>
       <c r="C4" cm="1">
-        <f t="array" aca="1" ref="C4" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A4))</f>
-        <v>1.31727259919567</v>
+        <f t="array" aca="1" ref="C4" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A4)))))</f>
+        <v>20</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" cm="1">
-        <f t="array" aca="1" ref="E4" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A4))</f>
+        <f t="array" aca="1" ref="E4" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A4)))))</f>
         <v>0</v>
       </c>
       <c r="F4" cm="1">
-        <f t="array" aca="1" ref="F4" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A4))</f>
-        <v>1.2409435234539752</v>
+        <f t="array" aca="1" ref="F4" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A4)))))</f>
+        <v>19</v>
       </c>
       <c r="G4" cm="1">
-        <f t="array" aca="1" ref="G4" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A4))</f>
-        <v>0.31948553318915673</v>
+        <f t="array" aca="1" ref="G4" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A4)))))</f>
+        <v>3</v>
       </c>
       <c r="H4" cm="1">
-        <f t="array" aca="1" ref="H4" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A4))</f>
-        <v>0.78540684064085142</v>
+        <f t="array" aca="1" ref="H4" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A4)))))</f>
+        <v>15</v>
       </c>
       <c r="I4" cm="1">
-        <f t="array" aca="1" ref="I4" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A4))</f>
-        <v>0.8329387626041429</v>
+        <f t="array" aca="1" ref="I4" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A4)))))</f>
+        <v>16</v>
       </c>
       <c r="J4" cm="1">
-        <f t="array" aca="1" ref="J4" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A4))</f>
-        <v>0.76923076923076927</v>
+        <f t="array" aca="1" ref="J4" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A4)))))</f>
+        <v>16</v>
       </c>
       <c r="K4" cm="1">
-        <f t="array" aca="1" ref="K4" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A4))</f>
-        <v>1.2409435234539752</v>
+        <f t="array" aca="1" ref="K4" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A4)))))</f>
+        <v>19</v>
       </c>
       <c r="L4" cm="1">
-        <f t="array" aca="1" ref="L4" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A4))</f>
-        <v>8.6517091378476856</v>
+        <f t="array" aca="1" ref="L4" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A4)))))</f>
+        <v>24</v>
       </c>
       <c r="M4" cm="1">
-        <f t="array" aca="1" ref="M4" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A4))</f>
-        <v>8.6209631664425856</v>
+        <f t="array" aca="1" ref="M4" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A4)))))</f>
+        <v>24</v>
       </c>
       <c r="N4" cm="1">
-        <f t="array" aca="1" ref="N4" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A4))</f>
-        <v>9.2952873470326534</v>
+        <f t="array" aca="1" ref="N4" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A4)))))</f>
+        <v>24</v>
       </c>
       <c r="O4" cm="1">
-        <f t="array" aca="1" ref="O4" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A4))</f>
-        <v>9.1227655933387819</v>
+        <f t="array" aca="1" ref="O4" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A4)))))</f>
+        <v>24</v>
       </c>
       <c r="P4" cm="1">
-        <f t="array" aca="1" ref="P4" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A4))</f>
-        <v>0.49404740687173576</v>
+        <f t="array" aca="1" ref="P4" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A4)))))</f>
+        <v>11</v>
       </c>
       <c r="Q4" cm="1">
-        <f t="array" aca="1" ref="Q4" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A4))</f>
-        <v>0.49404740687173576</v>
+        <f t="array" aca="1" ref="Q4" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A4)))))</f>
+        <v>11</v>
       </c>
       <c r="R4" cm="1">
-        <f t="array" aca="1" ref="R4" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A4))</f>
-        <v>0.49404740687173576</v>
+        <f t="array" aca="1" ref="R4" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A4)))))</f>
+        <v>11</v>
       </c>
       <c r="S4" cm="1">
-        <f t="array" aca="1" ref="S4" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A4))</f>
-        <v>0.49404740687173576</v>
+        <f t="array" aca="1" ref="S4" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A4)))))</f>
+        <v>11</v>
       </c>
       <c r="T4" cm="1">
-        <f t="array" aca="1" ref="T4" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A4))</f>
-        <v>0.31948553318915673</v>
+        <f t="array" aca="1" ref="T4" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A4)))))</f>
+        <v>3</v>
       </c>
       <c r="U4" cm="1">
-        <f t="array" aca="1" ref="U4" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A4))</f>
-        <v>0.78540684064085142</v>
+        <f t="array" aca="1" ref="U4" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A4)))))</f>
+        <v>15</v>
       </c>
       <c r="V4" cm="1">
-        <f t="array" aca="1" ref="V4" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A4))</f>
-        <v>0.8329387626041429</v>
+        <f t="array" aca="1" ref="V4" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A4)))))</f>
+        <v>16</v>
       </c>
       <c r="W4" cm="1">
-        <f t="array" aca="1" ref="W4" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A4))</f>
-        <v>0.76923076923076927</v>
+        <f t="array" aca="1" ref="W4" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A4)))))</f>
+        <v>16</v>
       </c>
       <c r="X4" cm="1">
-        <f t="array" aca="1" ref="X4" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A4))</f>
-        <v>1.2409435234539752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X4" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A4)))))</f>
+        <v>19</v>
+      </c>
+      <c r="Y4" cm="1">
+        <f t="array" aca="1" ref="Y4" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A4)))))</f>
+        <v>11</v>
+      </c>
+      <c r="Z4" cm="1">
+        <f t="array" aca="1" ref="Z4" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A4)))))</f>
+        <v>12</v>
+      </c>
+      <c r="AA4" cm="1">
+        <f t="array" aca="1" ref="AA4" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A4)))))</f>
+        <v>12</v>
+      </c>
+      <c r="AB4" cm="1">
+        <f t="array" aca="1" ref="AB4" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A4) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A4)))))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" cm="1">
-        <f t="array" aca="1" ref="B5" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A5))</f>
-        <v>1.31727259919567</v>
+        <f t="array" aca="1" ref="B5" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A5)))))</f>
+        <v>20</v>
       </c>
       <c r="C5" cm="1">
-        <f t="array" aca="1" ref="C5" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A5))</f>
-        <v>1.31727259919567</v>
+        <f t="array" aca="1" ref="C5" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A5)))))</f>
+        <v>20</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A5))</f>
+        <f t="array" aca="1" ref="D5" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A5)))))</f>
         <v>0</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" cm="1">
-        <f t="array" aca="1" ref="F5" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A5))</f>
-        <v>1.2409435234539752</v>
+        <f t="array" aca="1" ref="F5" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A5)))))</f>
+        <v>19</v>
       </c>
       <c r="G5" cm="1">
-        <f t="array" aca="1" ref="G5" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A5))</f>
-        <v>0.31948553318915673</v>
+        <f t="array" aca="1" ref="G5" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A5)))))</f>
+        <v>3</v>
       </c>
       <c r="H5" cm="1">
-        <f t="array" aca="1" ref="H5" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A5))</f>
-        <v>0.78540684064085142</v>
+        <f t="array" aca="1" ref="H5" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A5)))))</f>
+        <v>15</v>
       </c>
       <c r="I5" cm="1">
-        <f t="array" aca="1" ref="I5" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A5))</f>
-        <v>0.8329387626041429</v>
+        <f t="array" aca="1" ref="I5" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A5)))))</f>
+        <v>16</v>
       </c>
       <c r="J5" cm="1">
-        <f t="array" aca="1" ref="J5" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A5))</f>
-        <v>0.76923076923076927</v>
+        <f t="array" aca="1" ref="J5" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A5)))))</f>
+        <v>16</v>
       </c>
       <c r="K5" cm="1">
-        <f t="array" aca="1" ref="K5" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A5))</f>
-        <v>1.2409435234539752</v>
+        <f t="array" aca="1" ref="K5" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A5)))))</f>
+        <v>19</v>
       </c>
       <c r="L5" cm="1">
-        <f t="array" aca="1" ref="L5" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A5))</f>
-        <v>8.6517091378476856</v>
+        <f t="array" aca="1" ref="L5" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A5)))))</f>
+        <v>24</v>
       </c>
       <c r="M5" cm="1">
-        <f t="array" aca="1" ref="M5" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A5))</f>
-        <v>8.6209631664425856</v>
+        <f t="array" aca="1" ref="M5" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A5)))))</f>
+        <v>24</v>
       </c>
       <c r="N5" cm="1">
-        <f t="array" aca="1" ref="N5" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A5))</f>
-        <v>9.2952873470326534</v>
+        <f t="array" aca="1" ref="N5" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A5)))))</f>
+        <v>24</v>
       </c>
       <c r="O5" cm="1">
-        <f t="array" aca="1" ref="O5" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A5))</f>
-        <v>9.1227655933387819</v>
+        <f t="array" aca="1" ref="O5" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A5)))))</f>
+        <v>24</v>
       </c>
       <c r="P5" cm="1">
-        <f t="array" aca="1" ref="P5" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A5))</f>
-        <v>0.49404740687173576</v>
+        <f t="array" aca="1" ref="P5" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A5)))))</f>
+        <v>11</v>
       </c>
       <c r="Q5" cm="1">
-        <f t="array" aca="1" ref="Q5" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A5))</f>
-        <v>0.49404740687173576</v>
+        <f t="array" aca="1" ref="Q5" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A5)))))</f>
+        <v>11</v>
       </c>
       <c r="R5" cm="1">
-        <f t="array" aca="1" ref="R5" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A5))</f>
-        <v>0.49404740687173576</v>
+        <f t="array" aca="1" ref="R5" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A5)))))</f>
+        <v>11</v>
       </c>
       <c r="S5" cm="1">
-        <f t="array" aca="1" ref="S5" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A5))</f>
-        <v>0.49404740687173576</v>
+        <f t="array" aca="1" ref="S5" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A5)))))</f>
+        <v>11</v>
       </c>
       <c r="T5" cm="1">
-        <f t="array" aca="1" ref="T5" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A5))</f>
-        <v>0.31948553318915673</v>
+        <f t="array" aca="1" ref="T5" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A5)))))</f>
+        <v>3</v>
       </c>
       <c r="U5" cm="1">
-        <f t="array" aca="1" ref="U5" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A5))</f>
-        <v>0.78540684064085142</v>
+        <f t="array" aca="1" ref="U5" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A5)))))</f>
+        <v>15</v>
       </c>
       <c r="V5" cm="1">
-        <f t="array" aca="1" ref="V5" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A5))</f>
-        <v>0.8329387626041429</v>
+        <f t="array" aca="1" ref="V5" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A5)))))</f>
+        <v>16</v>
       </c>
       <c r="W5" cm="1">
-        <f t="array" aca="1" ref="W5" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A5))</f>
-        <v>0.76923076923076927</v>
+        <f t="array" aca="1" ref="W5" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A5)))))</f>
+        <v>16</v>
       </c>
       <c r="X5" cm="1">
-        <f t="array" aca="1" ref="X5" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A5))</f>
-        <v>1.2409435234539752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X5" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A5)))))</f>
+        <v>19</v>
+      </c>
+      <c r="Y5" cm="1">
+        <f t="array" aca="1" ref="Y5" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A5)))))</f>
+        <v>11</v>
+      </c>
+      <c r="Z5" cm="1">
+        <f t="array" aca="1" ref="Z5" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A5)))))</f>
+        <v>12</v>
+      </c>
+      <c r="AA5" cm="1">
+        <f t="array" aca="1" ref="AA5" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A5)))))</f>
+        <v>12</v>
+      </c>
+      <c r="AB5" cm="1">
+        <f t="array" aca="1" ref="AB5" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A5) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A5)))))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" cm="1">
-        <f t="array" aca="1" ref="B6" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A6))</f>
-        <v>2.468739467058648</v>
+        <f t="array" aca="1" ref="B6" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A6)))))</f>
+        <v>22</v>
       </c>
       <c r="C6" cm="1">
-        <f t="array" aca="1" ref="C6" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A6))</f>
-        <v>2.468739467058648</v>
+        <f t="array" aca="1" ref="C6" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A6)))))</f>
+        <v>22</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A6))</f>
-        <v>1.2409435234539752</v>
+        <f t="array" aca="1" ref="D6" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A6)))))</f>
+        <v>19</v>
       </c>
       <c r="E6" cm="1">
-        <f t="array" aca="1" ref="E6" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A6))</f>
-        <v>1.2409435234539752</v>
+        <f t="array" aca="1" ref="E6" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A6)))))</f>
+        <v>19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" cm="1">
-        <f t="array" aca="1" ref="G6" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A6))</f>
-        <v>1.4121199808219862</v>
+        <f t="array" aca="1" ref="G6" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A6)))))</f>
+        <v>20</v>
       </c>
       <c r="H6" cm="1">
-        <f t="array" aca="1" ref="H6" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A6))</f>
-        <v>0.624926031125843</v>
+        <f t="array" aca="1" ref="H6" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A6)))))</f>
+        <v>14</v>
       </c>
       <c r="I6" cm="1">
-        <f t="array" aca="1" ref="I6" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A6))</f>
-        <v>0.56000845302157831</v>
+        <f t="array" aca="1" ref="I6" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A6)))))</f>
+        <v>12</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" aca="1" ref="J6" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A6))</f>
-        <v>0.61658536699543831</v>
+        <f t="array" aca="1" ref="J6" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A6)))))</f>
+        <v>13</v>
       </c>
       <c r="K6" cm="1">
-        <f t="array" aca="1" ref="K6" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A6))</f>
+        <f t="array" aca="1" ref="K6" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A6)))))</f>
         <v>0</v>
       </c>
       <c r="L6" cm="1">
-        <f t="array" aca="1" ref="L6" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A6))</f>
-        <v>7.4687712763679022</v>
+        <f t="array" aca="1" ref="L6" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A6)))))</f>
+        <v>24</v>
       </c>
       <c r="M6" cm="1">
-        <f t="array" aca="1" ref="M6" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A6))</f>
-        <v>7.437311978628812</v>
+        <f t="array" aca="1" ref="M6" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A6)))))</f>
+        <v>24</v>
       </c>
       <c r="N6" cm="1">
-        <f t="array" aca="1" ref="N6" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A6))</f>
-        <v>8.1124675763613858</v>
+        <f t="array" aca="1" ref="N6" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A6)))))</f>
+        <v>24</v>
       </c>
       <c r="O6" cm="1">
-        <f t="array" aca="1" ref="O6" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A6))</f>
-        <v>7.9399558820111853</v>
+        <f t="array" aca="1" ref="O6" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A6)))))</f>
+        <v>24</v>
       </c>
       <c r="P6" cm="1">
-        <f t="array" aca="1" ref="P6" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A6))</f>
-        <v>1.2733034890189885</v>
+        <f t="array" aca="1" ref="P6" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A6)))))</f>
+        <v>19</v>
       </c>
       <c r="Q6" cm="1">
-        <f t="array" aca="1" ref="Q6" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A6))</f>
-        <v>1.273303489018988</v>
+        <f t="array" aca="1" ref="Q6" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A6)))))</f>
+        <v>19</v>
       </c>
       <c r="R6" cm="1">
-        <f t="array" aca="1" ref="R6" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A6))</f>
-        <v>1.273303489018988</v>
+        <f t="array" aca="1" ref="R6" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A6)))))</f>
+        <v>19</v>
       </c>
       <c r="S6" cm="1">
-        <f t="array" aca="1" ref="S6" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A6))</f>
-        <v>1.2733034890189885</v>
+        <f t="array" aca="1" ref="S6" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A6)))))</f>
+        <v>19</v>
       </c>
       <c r="T6" cm="1">
-        <f t="array" aca="1" ref="T6" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A6))</f>
-        <v>1.4121199808219862</v>
+        <f t="array" aca="1" ref="T6" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A6)))))</f>
+        <v>20</v>
       </c>
       <c r="U6" cm="1">
-        <f t="array" aca="1" ref="U6" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A6))</f>
-        <v>0.624926031125843</v>
+        <f t="array" aca="1" ref="U6" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A6)))))</f>
+        <v>14</v>
       </c>
       <c r="V6" cm="1">
-        <f t="array" aca="1" ref="V6" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A6))</f>
-        <v>0.56000845302157831</v>
+        <f t="array" aca="1" ref="V6" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A6)))))</f>
+        <v>12</v>
       </c>
       <c r="W6" cm="1">
-        <f t="array" aca="1" ref="W6" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A6))</f>
-        <v>0.61658536699543831</v>
+        <f t="array" aca="1" ref="W6" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A6)))))</f>
+        <v>13</v>
       </c>
       <c r="X6" cm="1">
-        <f t="array" aca="1" ref="X6" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A6))</f>
+        <f t="array" aca="1" ref="X6" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A6)))))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y6" cm="1">
+        <f t="array" aca="1" ref="Y6" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A6)))))</f>
+        <v>19</v>
+      </c>
+      <c r="Z6" cm="1">
+        <f t="array" aca="1" ref="Z6" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A6)))))</f>
+        <v>20</v>
+      </c>
+      <c r="AA6" cm="1">
+        <f t="array" aca="1" ref="AA6" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A6)))))</f>
+        <v>20</v>
+      </c>
+      <c r="AB6" cm="1">
+        <f t="array" aca="1" ref="AB6" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A6) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A6)))))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" cm="1">
-        <f t="array" aca="1" ref="B7" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A7))</f>
-        <v>1.1461280327501031</v>
+        <f t="array" aca="1" ref="B7" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A7)))))</f>
+        <v>18</v>
       </c>
       <c r="C7" cm="1">
-        <f t="array" aca="1" ref="C7" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A7))</f>
-        <v>1.1461280327501031</v>
+        <f t="array" aca="1" ref="C7" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A7)))))</f>
+        <v>18</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A7))</f>
-        <v>0.31948553318915673</v>
+        <f t="array" aca="1" ref="D7" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A7)))))</f>
+        <v>3</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" aca="1" ref="E7" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A7))</f>
-        <v>0.31948553318915673</v>
+        <f t="array" aca="1" ref="E7" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A7)))))</f>
+        <v>3</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" aca="1" ref="F7" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A7))</f>
-        <v>1.4121199808219862</v>
+        <f t="array" aca="1" ref="F7" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A7)))))</f>
+        <v>20</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" cm="1">
-        <f t="array" aca="1" ref="H7" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A7))</f>
-        <v>0.95148591360407553</v>
+        <f t="array" aca="1" ref="H7" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A7)))))</f>
+        <v>17</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" aca="1" ref="I7" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A7))</f>
-        <v>1.0291606277122809</v>
+        <f t="array" aca="1" ref="I7" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A7)))))</f>
+        <v>16</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" aca="1" ref="J7" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A7))</f>
-        <v>0.94289620554855869</v>
+        <f t="array" aca="1" ref="J7" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A7)))))</f>
+        <v>16</v>
       </c>
       <c r="K7" cm="1">
-        <f t="array" aca="1" ref="K7" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A7))</f>
-        <v>1.4121199808219862</v>
+        <f t="array" aca="1" ref="K7" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A7)))))</f>
+        <v>20</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" aca="1" ref="L7" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A7))</f>
-        <v>8.8328495271475536</v>
+        <f t="array" aca="1" ref="L7" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A7)))))</f>
+        <v>24</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" aca="1" ref="M7" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A7))</f>
-        <v>8.8022320999180881</v>
+        <f t="array" aca="1" ref="M7" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A7)))))</f>
+        <v>24</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" aca="1" ref="N7" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A7))</f>
-        <v>9.4663058658360573</v>
+        <f t="array" aca="1" ref="N7" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A7)))))</f>
+        <v>24</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" aca="1" ref="O7" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A7))</f>
-        <v>9.3026846032961021</v>
+        <f t="array" aca="1" ref="O7" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A7)))))</f>
+        <v>24</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" aca="1" ref="P7" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A7))</f>
-        <v>0.49851851526214314</v>
+        <f t="array" aca="1" ref="P7" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A7)))))</f>
+        <v>12</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" aca="1" ref="Q7" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A7))</f>
-        <v>0.49851851526214314</v>
+        <f t="array" aca="1" ref="Q7" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A7)))))</f>
+        <v>12</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" aca="1" ref="R7" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A7))</f>
-        <v>0.49851851526214308</v>
+        <f t="array" aca="1" ref="R7" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A7)))))</f>
+        <v>12</v>
       </c>
       <c r="S7" cm="1">
-        <f t="array" aca="1" ref="S7" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A7))</f>
-        <v>0.49851851526214308</v>
+        <f t="array" aca="1" ref="S7" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A7)))))</f>
+        <v>12</v>
       </c>
       <c r="T7" cm="1">
-        <f t="array" aca="1" ref="T7" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A7))</f>
+        <f t="array" aca="1" ref="T7" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A7)))))</f>
         <v>0</v>
       </c>
       <c r="U7" cm="1">
-        <f t="array" aca="1" ref="U7" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A7))</f>
-        <v>0.95148591360407553</v>
+        <f t="array" aca="1" ref="U7" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A7)))))</f>
+        <v>17</v>
       </c>
       <c r="V7" cm="1">
-        <f t="array" aca="1" ref="V7" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A7))</f>
-        <v>1.0291606277122809</v>
+        <f t="array" aca="1" ref="V7" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A7)))))</f>
+        <v>16</v>
       </c>
       <c r="W7" cm="1">
-        <f t="array" aca="1" ref="W7" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A7))</f>
-        <v>0.94289620554855869</v>
+        <f t="array" aca="1" ref="W7" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A7)))))</f>
+        <v>16</v>
       </c>
       <c r="X7" cm="1">
-        <f t="array" aca="1" ref="X7" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A7))</f>
-        <v>1.4121199808219862</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X7" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A7)))))</f>
+        <v>20</v>
+      </c>
+      <c r="Y7" cm="1">
+        <f t="array" aca="1" ref="Y7" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A7)))))</f>
+        <v>12</v>
+      </c>
+      <c r="Z7" cm="1">
+        <f t="array" aca="1" ref="Z7" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A7)))))</f>
+        <v>11</v>
+      </c>
+      <c r="AA7" cm="1">
+        <f t="array" aca="1" ref="AA7" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A7)))))</f>
+        <v>11</v>
+      </c>
+      <c r="AB7" cm="1">
+        <f t="array" aca="1" ref="AB7" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A7) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A7)))))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8" cm="1">
-        <f t="array" aca="1" ref="B8" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A8))</f>
-        <v>2.0176733920929233</v>
+        <f t="array" aca="1" ref="B8" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A8)))))</f>
+        <v>21</v>
       </c>
       <c r="C8" cm="1">
-        <f t="array" aca="1" ref="C8" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A8))</f>
-        <v>2.0176733920929233</v>
+        <f t="array" aca="1" ref="C8" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A8)))))</f>
+        <v>21</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A8))</f>
-        <v>0.78540684064085142</v>
+        <f t="array" aca="1" ref="D8" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A8)))))</f>
+        <v>15</v>
       </c>
       <c r="E8" cm="1">
-        <f t="array" aca="1" ref="E8" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A8))</f>
-        <v>0.78540684064085142</v>
+        <f t="array" aca="1" ref="E8" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A8)))))</f>
+        <v>15</v>
       </c>
       <c r="F8" cm="1">
-        <f t="array" aca="1" ref="F8" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A8))</f>
-        <v>0.624926031125843</v>
+        <f t="array" aca="1" ref="F8" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A8)))))</f>
+        <v>14</v>
       </c>
       <c r="G8" cm="1">
-        <f t="array" aca="1" ref="G8" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A8))</f>
-        <v>0.95148591360407553</v>
+        <f t="array" aca="1" ref="G8" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A8)))))</f>
+        <v>17</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" cm="1">
-        <f t="array" aca="1" ref="I8" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A8))</f>
-        <v>0.27735009811261457</v>
+        <f t="array" aca="1" ref="I8" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A8)))))</f>
+        <v>2</v>
       </c>
       <c r="J8" cm="1">
-        <f t="array" aca="1" ref="J8" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A8))</f>
-        <v>0.19230769230769226</v>
+        <f t="array" aca="1" ref="J8" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A8)))))</f>
+        <v>1</v>
       </c>
       <c r="K8" cm="1">
-        <f t="array" aca="1" ref="K8" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A8))</f>
-        <v>0.624926031125843</v>
+        <f t="array" aca="1" ref="K8" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A8)))))</f>
+        <v>14</v>
       </c>
       <c r="L8" cm="1">
-        <f t="array" aca="1" ref="L8" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A8))</f>
-        <v>7.9421912824398726</v>
+        <f t="array" aca="1" ref="L8" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A8)))))</f>
+        <v>24</v>
       </c>
       <c r="M8" cm="1">
-        <f t="array" aca="1" ref="M8" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A8))</f>
-        <v>7.9144837642412202</v>
+        <f t="array" aca="1" ref="M8" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A8)))))</f>
+        <v>24</v>
       </c>
       <c r="N8" cm="1">
-        <f t="array" aca="1" ref="N8" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A8))</f>
-        <v>8.5841638976947081</v>
+        <f t="array" aca="1" ref="N8" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A8)))))</f>
+        <v>24</v>
       </c>
       <c r="O8" cm="1">
-        <f t="array" aca="1" ref="O8" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A8))</f>
-        <v>8.4139395468606057</v>
+        <f t="array" aca="1" ref="O8" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A8)))))</f>
+        <v>24</v>
       </c>
       <c r="P8" cm="1">
-        <f t="array" aca="1" ref="P8" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A8))</f>
-        <v>0.84615384615384637</v>
+        <f t="array" aca="1" ref="P8" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A8)))))</f>
+        <v>16</v>
       </c>
       <c r="Q8" cm="1">
-        <f t="array" aca="1" ref="Q8" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A8))</f>
-        <v>0.84615384615384615</v>
+        <f t="array" aca="1" ref="Q8" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A8)))))</f>
+        <v>16</v>
       </c>
       <c r="R8" cm="1">
-        <f t="array" aca="1" ref="R8" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A8))</f>
-        <v>0.84615384615384615</v>
+        <f t="array" aca="1" ref="R8" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A8)))))</f>
+        <v>16</v>
       </c>
       <c r="S8" cm="1">
-        <f t="array" aca="1" ref="S8" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A8))</f>
-        <v>0.84615384615384615</v>
+        <f t="array" aca="1" ref="S8" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A8)))))</f>
+        <v>16</v>
       </c>
       <c r="T8" cm="1">
-        <f t="array" aca="1" ref="T8" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A8))</f>
-        <v>0.95148591360407553</v>
+        <f t="array" aca="1" ref="T8" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A8)))))</f>
+        <v>17</v>
       </c>
       <c r="U8" cm="1">
-        <f t="array" aca="1" ref="U8" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A8))</f>
+        <f t="array" aca="1" ref="U8" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A8)))))</f>
         <v>0</v>
       </c>
       <c r="V8" cm="1">
-        <f t="array" aca="1" ref="V8" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A8))</f>
-        <v>0.27735009811261457</v>
+        <f t="array" aca="1" ref="V8" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A8)))))</f>
+        <v>2</v>
       </c>
       <c r="W8" cm="1">
-        <f t="array" aca="1" ref="W8" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A8))</f>
-        <v>0.19230769230769226</v>
+        <f t="array" aca="1" ref="W8" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A8)))))</f>
+        <v>1</v>
       </c>
       <c r="X8" cm="1">
-        <f t="array" aca="1" ref="X8" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A8))</f>
-        <v>0.624926031125843</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X8" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A8)))))</f>
+        <v>14</v>
+      </c>
+      <c r="Y8" cm="1">
+        <f t="array" aca="1" ref="Y8" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A8)))))</f>
+        <v>16</v>
+      </c>
+      <c r="Z8" cm="1">
+        <f t="array" aca="1" ref="Z8" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A8)))))</f>
+        <v>17</v>
+      </c>
+      <c r="AA8" cm="1">
+        <f t="array" aca="1" ref="AA8" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A8)))))</f>
+        <v>17</v>
+      </c>
+      <c r="AB8" cm="1">
+        <f t="array" aca="1" ref="AB8" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A8) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A8)))))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9" cm="1">
-        <f t="array" aca="1" ref="B9" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A9))</f>
-        <v>2.0554444947519057</v>
+        <f t="array" aca="1" ref="B9" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A9)))))</f>
+        <v>22</v>
       </c>
       <c r="C9" cm="1">
-        <f t="array" aca="1" ref="C9" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A9))</f>
-        <v>2.0554444947519057</v>
+        <f t="array" aca="1" ref="C9" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A9)))))</f>
+        <v>22</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A9))</f>
-        <v>0.8329387626041429</v>
+        <f t="array" aca="1" ref="D9" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A9)))))</f>
+        <v>16</v>
       </c>
       <c r="E9" cm="1">
-        <f t="array" aca="1" ref="E9" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A9))</f>
-        <v>0.8329387626041429</v>
+        <f t="array" aca="1" ref="E9" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A9)))))</f>
+        <v>16</v>
       </c>
       <c r="F9" cm="1">
-        <f t="array" aca="1" ref="F9" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A9))</f>
-        <v>0.56000845302157831</v>
+        <f t="array" aca="1" ref="F9" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A9)))))</f>
+        <v>12</v>
       </c>
       <c r="G9" cm="1">
-        <f t="array" aca="1" ref="G9" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A9))</f>
-        <v>1.0291606277122809</v>
+        <f t="array" aca="1" ref="G9" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A9)))))</f>
+        <v>16</v>
       </c>
       <c r="H9" cm="1">
-        <f t="array" aca="1" ref="H9" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A9))</f>
-        <v>0.27735009811261457</v>
+        <f t="array" aca="1" ref="H9" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A9)))))</f>
+        <v>2</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" cm="1">
-        <f t="array" aca="1" ref="J9" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A9))</f>
-        <v>0.19230769230769229</v>
+        <f t="array" aca="1" ref="J9" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A9)))))</f>
+        <v>1</v>
       </c>
       <c r="K9" cm="1">
-        <f t="array" aca="1" ref="K9" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A9))</f>
-        <v>0.56000845302157831</v>
+        <f t="array" aca="1" ref="K9" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A9)))))</f>
+        <v>12</v>
       </c>
       <c r="L9" cm="1">
-        <f t="array" aca="1" ref="L9" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A9))</f>
-        <v>7.9033548415517378</v>
+        <f t="array" aca="1" ref="L9" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A9)))))</f>
+        <v>24</v>
       </c>
       <c r="M9" cm="1">
-        <f t="array" aca="1" ref="M9" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A9))</f>
-        <v>7.8755106906824306</v>
+        <f t="array" aca="1" ref="M9" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A9)))))</f>
+        <v>24</v>
       </c>
       <c r="N9" cm="1">
-        <f t="array" aca="1" ref="N9" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A9))</f>
-        <v>8.5482445687462985</v>
+        <f t="array" aca="1" ref="N9" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A9)))))</f>
+        <v>24</v>
       </c>
       <c r="O9" cm="1">
-        <f t="array" aca="1" ref="O9" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A9))</f>
-        <v>8.3726979526265701</v>
+        <f t="array" aca="1" ref="O9" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A9)))))</f>
+        <v>24</v>
       </c>
       <c r="P9" cm="1">
-        <f t="array" aca="1" ref="P9" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A9))</f>
-        <v>0.89044899252232523</v>
+        <f t="array" aca="1" ref="P9" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A9)))))</f>
+        <v>16</v>
       </c>
       <c r="Q9" cm="1">
-        <f t="array" aca="1" ref="Q9" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A9))</f>
-        <v>0.89044899252232523</v>
+        <f t="array" aca="1" ref="Q9" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A9)))))</f>
+        <v>16</v>
       </c>
       <c r="R9" cm="1">
-        <f t="array" aca="1" ref="R9" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A9))</f>
-        <v>0.89044899252232523</v>
+        <f t="array" aca="1" ref="R9" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A9)))))</f>
+        <v>16</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" aca="1" ref="S9" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A9))</f>
-        <v>0.89044899252232501</v>
+        <f t="array" aca="1" ref="S9" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A9)))))</f>
+        <v>16</v>
       </c>
       <c r="T9" cm="1">
-        <f t="array" aca="1" ref="T9" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A9))</f>
-        <v>1.0291606277122809</v>
+        <f t="array" aca="1" ref="T9" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A9)))))</f>
+        <v>16</v>
       </c>
       <c r="U9" cm="1">
-        <f t="array" aca="1" ref="U9" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A9))</f>
-        <v>0.27735009811261457</v>
+        <f t="array" aca="1" ref="U9" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A9)))))</f>
+        <v>2</v>
       </c>
       <c r="V9" cm="1">
-        <f t="array" aca="1" ref="V9" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A9))</f>
+        <f t="array" aca="1" ref="V9" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A9)))))</f>
         <v>0</v>
       </c>
       <c r="W9" cm="1">
-        <f t="array" aca="1" ref="W9" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A9))</f>
-        <v>0.19230769230769229</v>
+        <f t="array" aca="1" ref="W9" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A9)))))</f>
+        <v>1</v>
       </c>
       <c r="X9" cm="1">
-        <f t="array" aca="1" ref="X9" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A9))</f>
-        <v>0.56000845302157831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X9" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A9)))))</f>
+        <v>12</v>
+      </c>
+      <c r="Y9" cm="1">
+        <f t="array" aca="1" ref="Y9" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A9)))))</f>
+        <v>15</v>
+      </c>
+      <c r="Z9" cm="1">
+        <f t="array" aca="1" ref="Z9" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A9)))))</f>
+        <v>16</v>
+      </c>
+      <c r="AA9" cm="1">
+        <f t="array" aca="1" ref="AA9" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A9)))))</f>
+        <v>16</v>
+      </c>
+      <c r="AB9" cm="1">
+        <f t="array" aca="1" ref="AB9" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A9) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A9)))))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" cm="1">
-        <f t="array" aca="1" ref="B10" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A10))</f>
-        <v>1.9870140543214601</v>
+        <f t="array" aca="1" ref="B10" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A10)))))</f>
+        <v>22</v>
       </c>
       <c r="C10" cm="1">
-        <f t="array" aca="1" ref="C10" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A10))</f>
-        <v>1.9870140543214601</v>
+        <f t="array" aca="1" ref="C10" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A10)))))</f>
+        <v>22</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A10))</f>
-        <v>0.76923076923076927</v>
+        <f t="array" aca="1" ref="D10" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A10)))))</f>
+        <v>16</v>
       </c>
       <c r="E10" cm="1">
-        <f t="array" aca="1" ref="E10" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A10))</f>
-        <v>0.76923076923076927</v>
+        <f t="array" aca="1" ref="E10" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A10)))))</f>
+        <v>16</v>
       </c>
       <c r="F10" cm="1">
-        <f t="array" aca="1" ref="F10" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A10))</f>
-        <v>0.61658536699543831</v>
+        <f t="array" aca="1" ref="F10" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A10)))))</f>
+        <v>13</v>
       </c>
       <c r="G10" cm="1">
-        <f t="array" aca="1" ref="G10" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A10))</f>
-        <v>0.94289620554855869</v>
+        <f t="array" aca="1" ref="G10" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A10)))))</f>
+        <v>16</v>
       </c>
       <c r="H10" cm="1">
-        <f t="array" aca="1" ref="H10" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A10))</f>
-        <v>0.19230769230769226</v>
+        <f t="array" aca="1" ref="H10" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A10)))))</f>
+        <v>1</v>
       </c>
       <c r="I10" cm="1">
-        <f t="array" aca="1" ref="I10" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A10))</f>
-        <v>0.19230769230769229</v>
+        <f t="array" aca="1" ref="I10" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A10)))))</f>
+        <v>1</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" cm="1">
-        <f t="array" aca="1" ref="K10" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A10))</f>
-        <v>0.61658536699543831</v>
+        <f t="array" aca="1" ref="K10" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A10)))))</f>
+        <v>13</v>
       </c>
       <c r="L10" cm="1">
-        <f t="array" aca="1" ref="L10" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A10))</f>
-        <v>7.9629318736046359</v>
+        <f t="array" aca="1" ref="L10" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A10)))))</f>
+        <v>24</v>
       </c>
       <c r="M10" cm="1">
-        <f t="array" aca="1" ref="M10" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A10))</f>
-        <v>7.9351103540757988</v>
+        <f t="array" aca="1" ref="M10" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A10)))))</f>
+        <v>24</v>
       </c>
       <c r="N10" cm="1">
-        <f t="array" aca="1" ref="N10" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A10))</f>
-        <v>8.6071389111996091</v>
+        <f t="array" aca="1" ref="N10" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A10)))))</f>
+        <v>24</v>
       </c>
       <c r="O10" cm="1">
-        <f t="array" aca="1" ref="O10" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A10))</f>
-        <v>8.434923176537108</v>
+        <f t="array" aca="1" ref="O10" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A10)))))</f>
+        <v>24</v>
       </c>
       <c r="P10" cm="1">
-        <f t="array" aca="1" ref="P10" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A10))</f>
-        <v>0.81134704268188418</v>
+        <f t="array" aca="1" ref="P10" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A10)))))</f>
+        <v>16</v>
       </c>
       <c r="Q10" cm="1">
-        <f t="array" aca="1" ref="Q10" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A10))</f>
-        <v>0.81134704268188418</v>
+        <f t="array" aca="1" ref="Q10" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A10)))))</f>
+        <v>16</v>
       </c>
       <c r="R10" cm="1">
-        <f t="array" aca="1" ref="R10" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A10))</f>
-        <v>0.81134704268188418</v>
+        <f t="array" aca="1" ref="R10" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A10)))))</f>
+        <v>16</v>
       </c>
       <c r="S10" cm="1">
-        <f t="array" aca="1" ref="S10" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A10))</f>
-        <v>0.81134704268188418</v>
+        <f t="array" aca="1" ref="S10" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A10)))))</f>
+        <v>16</v>
       </c>
       <c r="T10" cm="1">
-        <f t="array" aca="1" ref="T10" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A10))</f>
-        <v>0.94289620554855869</v>
+        <f t="array" aca="1" ref="T10" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A10)))))</f>
+        <v>16</v>
       </c>
       <c r="U10" cm="1">
-        <f t="array" aca="1" ref="U10" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A10))</f>
-        <v>0.19230769230769226</v>
+        <f t="array" aca="1" ref="U10" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A10)))))</f>
+        <v>1</v>
       </c>
       <c r="V10" cm="1">
-        <f t="array" aca="1" ref="V10" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A10))</f>
-        <v>0.19230769230769229</v>
+        <f t="array" aca="1" ref="V10" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A10)))))</f>
+        <v>1</v>
       </c>
       <c r="W10" cm="1">
-        <f t="array" aca="1" ref="W10" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A10))</f>
+        <f t="array" aca="1" ref="W10" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A10)))))</f>
         <v>0</v>
       </c>
       <c r="X10" cm="1">
-        <f t="array" aca="1" ref="X10" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A10))</f>
-        <v>0.61658536699543831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X10" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A10)))))</f>
+        <v>13</v>
+      </c>
+      <c r="Y10" cm="1">
+        <f t="array" aca="1" ref="Y10" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A10)))))</f>
+        <v>15</v>
+      </c>
+      <c r="Z10" cm="1">
+        <f t="array" aca="1" ref="Z10" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A10)))))</f>
+        <v>16</v>
+      </c>
+      <c r="AA10" cm="1">
+        <f t="array" aca="1" ref="AA10" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A10)))))</f>
+        <v>16</v>
+      </c>
+      <c r="AB10" cm="1">
+        <f t="array" aca="1" ref="AB10" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A10) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A10)))))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11" cm="1">
-        <f t="array" aca="1" ref="B11" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A11))</f>
-        <v>2.468739467058648</v>
+        <f t="array" aca="1" ref="B11" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A11)))))</f>
+        <v>22</v>
       </c>
       <c r="C11" cm="1">
-        <f t="array" aca="1" ref="C11" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A11))</f>
-        <v>2.468739467058648</v>
+        <f t="array" aca="1" ref="C11" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A11)))))</f>
+        <v>22</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A11))</f>
-        <v>1.2409435234539752</v>
+        <f t="array" aca="1" ref="D11" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A11)))))</f>
+        <v>19</v>
       </c>
       <c r="E11" cm="1">
-        <f t="array" aca="1" ref="E11" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A11))</f>
-        <v>1.2409435234539752</v>
+        <f t="array" aca="1" ref="E11" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A11)))))</f>
+        <v>19</v>
       </c>
       <c r="F11" cm="1">
-        <f t="array" aca="1" ref="F11" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A11))</f>
+        <f t="array" aca="1" ref="F11" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A11)))))</f>
         <v>0</v>
       </c>
       <c r="G11" cm="1">
-        <f t="array" aca="1" ref="G11" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A11))</f>
-        <v>1.4121199808219862</v>
+        <f t="array" aca="1" ref="G11" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A11)))))</f>
+        <v>20</v>
       </c>
       <c r="H11" cm="1">
-        <f t="array" aca="1" ref="H11" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A11))</f>
-        <v>0.624926031125843</v>
+        <f t="array" aca="1" ref="H11" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A11)))))</f>
+        <v>14</v>
       </c>
       <c r="I11" cm="1">
-        <f t="array" aca="1" ref="I11" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A11))</f>
-        <v>0.56000845302157831</v>
+        <f t="array" aca="1" ref="I11" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A11)))))</f>
+        <v>12</v>
       </c>
       <c r="J11" cm="1">
-        <f t="array" aca="1" ref="J11" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A11))</f>
-        <v>0.61658536699543831</v>
+        <f t="array" aca="1" ref="J11" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A11)))))</f>
+        <v>13</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" cm="1">
-        <f t="array" aca="1" ref="L11" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A11))</f>
-        <v>7.4687712763679022</v>
+        <f t="array" aca="1" ref="L11" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A11)))))</f>
+        <v>24</v>
       </c>
       <c r="M11" cm="1">
-        <f t="array" aca="1" ref="M11" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A11))</f>
-        <v>7.437311978628812</v>
+        <f t="array" aca="1" ref="M11" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A11)))))</f>
+        <v>24</v>
       </c>
       <c r="N11" cm="1">
-        <f t="array" aca="1" ref="N11" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A11))</f>
-        <v>8.1124675763613858</v>
+        <f t="array" aca="1" ref="N11" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A11)))))</f>
+        <v>24</v>
       </c>
       <c r="O11" cm="1">
-        <f t="array" aca="1" ref="O11" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A11))</f>
-        <v>7.9399558820111853</v>
+        <f t="array" aca="1" ref="O11" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A11)))))</f>
+        <v>24</v>
       </c>
       <c r="P11" cm="1">
-        <f t="array" aca="1" ref="P11" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A11))</f>
-        <v>1.2733034890189885</v>
+        <f t="array" aca="1" ref="P11" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A11)))))</f>
+        <v>19</v>
       </c>
       <c r="Q11" cm="1">
-        <f t="array" aca="1" ref="Q11" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A11))</f>
-        <v>1.2733034890189885</v>
+        <f t="array" aca="1" ref="Q11" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A11)))))</f>
+        <v>19</v>
       </c>
       <c r="R11" cm="1">
-        <f t="array" aca="1" ref="R11" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A11))</f>
-        <v>1.273303489018988</v>
+        <f t="array" aca="1" ref="R11" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A11)))))</f>
+        <v>19</v>
       </c>
       <c r="S11" cm="1">
-        <f t="array" aca="1" ref="S11" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A11))</f>
-        <v>1.273303489018988</v>
+        <f t="array" aca="1" ref="S11" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A11)))))</f>
+        <v>19</v>
       </c>
       <c r="T11" cm="1">
-        <f t="array" aca="1" ref="T11" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A11))</f>
-        <v>1.4121199808219862</v>
+        <f t="array" aca="1" ref="T11" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A11)))))</f>
+        <v>20</v>
       </c>
       <c r="U11" cm="1">
-        <f t="array" aca="1" ref="U11" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A11))</f>
-        <v>0.624926031125843</v>
+        <f t="array" aca="1" ref="U11" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A11)))))</f>
+        <v>14</v>
       </c>
       <c r="V11" cm="1">
-        <f t="array" aca="1" ref="V11" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A11))</f>
-        <v>0.56000845302157831</v>
+        <f t="array" aca="1" ref="V11" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A11)))))</f>
+        <v>12</v>
       </c>
       <c r="W11" cm="1">
-        <f t="array" aca="1" ref="W11" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A11))</f>
-        <v>0.61658536699543831</v>
+        <f t="array" aca="1" ref="W11" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A11)))))</f>
+        <v>13</v>
       </c>
       <c r="X11" cm="1">
-        <f t="array" aca="1" ref="X11" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A11))</f>
+        <f t="array" aca="1" ref="X11" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A11)))))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y11" cm="1">
+        <f t="array" aca="1" ref="Y11" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A11)))))</f>
+        <v>19</v>
+      </c>
+      <c r="Z11" cm="1">
+        <f t="array" aca="1" ref="Z11" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A11)))))</f>
+        <v>20</v>
+      </c>
+      <c r="AA11" cm="1">
+        <f t="array" aca="1" ref="AA11" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A11)))))</f>
+        <v>20</v>
+      </c>
+      <c r="AB11" cm="1">
+        <f t="array" aca="1" ref="AB11" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A11) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A11)))))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>29</v>
       </c>
       <c r="B12" cm="1">
-        <f t="array" aca="1" ref="B12" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A12))</f>
-        <v>9.9201695204068709</v>
+        <f t="array" aca="1" ref="B12" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="C12" cm="1">
-        <f t="array" aca="1" ref="C12" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A12))</f>
-        <v>9.9201695204068709</v>
+        <f t="array" aca="1" ref="C12" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A12))</f>
-        <v>8.6517091378476856</v>
+        <f t="array" aca="1" ref="D12" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="E12" cm="1">
-        <f t="array" aca="1" ref="E12" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A12))</f>
-        <v>8.6517091378476856</v>
+        <f t="array" aca="1" ref="E12" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="F12" cm="1">
-        <f t="array" aca="1" ref="F12" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A12))</f>
-        <v>7.4687712763679022</v>
+        <f t="array" aca="1" ref="F12" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="G12" cm="1">
-        <f t="array" aca="1" ref="G12" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A12))</f>
-        <v>8.8328495271475536</v>
+        <f t="array" aca="1" ref="G12" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="H12" cm="1">
-        <f t="array" aca="1" ref="H12" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A12))</f>
-        <v>7.9421912824398726</v>
+        <f t="array" aca="1" ref="H12" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="I12" cm="1">
-        <f t="array" aca="1" ref="I12" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A12))</f>
-        <v>7.9033548415517378</v>
+        <f t="array" aca="1" ref="I12" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="J12" cm="1">
-        <f t="array" aca="1" ref="J12" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A12))</f>
-        <v>7.9629318736046359</v>
+        <f t="array" aca="1" ref="J12" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="K12" cm="1">
-        <f t="array" aca="1" ref="K12" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A12))</f>
-        <v>7.4687712763679022</v>
+        <f t="array" aca="1" ref="K12" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" cm="1">
-        <f t="array" aca="1" ref="M12" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A12))</f>
-        <v>0.19230769230769232</v>
+        <f t="array" aca="1" ref="M12" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A12)))))</f>
+        <v>1</v>
       </c>
       <c r="N12" cm="1">
-        <f t="array" aca="1" ref="N12" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A12))</f>
-        <v>0.81770352405651148</v>
+        <f t="array" aca="1" ref="N12" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A12)))))</f>
+        <v>15</v>
       </c>
       <c r="O12" cm="1">
-        <f t="array" aca="1" ref="O12" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A12))</f>
-        <v>0.60569291338552389</v>
+        <f t="array" aca="1" ref="O12" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A12)))))</f>
+        <v>12</v>
       </c>
       <c r="P12" cm="1">
-        <f t="array" aca="1" ref="P12" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A12))</f>
-        <v>8.6845608773924834</v>
+        <f t="array" aca="1" ref="P12" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="Q12" cm="1">
-        <f t="array" aca="1" ref="Q12" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A12))</f>
-        <v>8.6845608773924834</v>
+        <f t="array" aca="1" ref="Q12" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="R12" cm="1">
-        <f t="array" aca="1" ref="R12" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A12))</f>
-        <v>8.6845608773924834</v>
+        <f t="array" aca="1" ref="R12" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="S12" cm="1">
-        <f t="array" aca="1" ref="S12" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A12))</f>
-        <v>8.6845608773924834</v>
+        <f t="array" aca="1" ref="S12" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="T12" cm="1">
-        <f t="array" aca="1" ref="T12" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A12))</f>
-        <v>8.8328495271475536</v>
+        <f t="array" aca="1" ref="T12" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="U12" cm="1">
-        <f t="array" aca="1" ref="U12" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A12))</f>
-        <v>7.9421912824398726</v>
+        <f t="array" aca="1" ref="U12" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="V12" cm="1">
-        <f t="array" aca="1" ref="V12" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A12))</f>
-        <v>7.9033548415517378</v>
+        <f t="array" aca="1" ref="V12" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="W12" cm="1">
-        <f t="array" aca="1" ref="W12" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A12))</f>
-        <v>7.9629318736046359</v>
+        <f t="array" aca="1" ref="W12" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
       </c>
       <c r="X12" cm="1">
-        <f t="array" aca="1" ref="X12" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A12))</f>
-        <v>7.4687712763679022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X12" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A12)))))</f>
+        <v>24</v>
+      </c>
+      <c r="Y12" cm="1">
+        <f t="array" aca="1" ref="Y12" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A12)))))</f>
+        <v>23</v>
+      </c>
+      <c r="Z12" cm="1">
+        <f t="array" aca="1" ref="Z12" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A12)))))</f>
+        <v>23</v>
+      </c>
+      <c r="AA12" cm="1">
+        <f t="array" aca="1" ref="AA12" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A12)))))</f>
+        <v>23</v>
+      </c>
+      <c r="AB12" cm="1">
+        <f t="array" aca="1" ref="AB12" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A12) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A12)))))</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>30</v>
       </c>
       <c r="B13" cm="1">
-        <f t="array" aca="1" ref="B13" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A13))</f>
-        <v>9.8905250218125733</v>
+        <f t="array" aca="1" ref="B13" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="C13" cm="1">
-        <f t="array" aca="1" ref="C13" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A13))</f>
-        <v>9.8905250218125733</v>
+        <f t="array" aca="1" ref="C13" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A13))</f>
-        <v>8.6209631664425856</v>
+        <f t="array" aca="1" ref="D13" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="E13" cm="1">
-        <f t="array" aca="1" ref="E13" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A13))</f>
-        <v>8.6209631664425856</v>
+        <f t="array" aca="1" ref="E13" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="F13" cm="1">
-        <f t="array" aca="1" ref="F13" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A13))</f>
-        <v>7.437311978628812</v>
+        <f t="array" aca="1" ref="F13" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="G13" cm="1">
-        <f t="array" aca="1" ref="G13" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A13))</f>
-        <v>8.8022320999180881</v>
+        <f t="array" aca="1" ref="G13" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="H13" cm="1">
-        <f t="array" aca="1" ref="H13" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A13))</f>
-        <v>7.9144837642412202</v>
+        <f t="array" aca="1" ref="H13" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="I13" cm="1">
-        <f t="array" aca="1" ref="I13" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A13))</f>
-        <v>7.8755106906824306</v>
+        <f t="array" aca="1" ref="I13" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="J13" cm="1">
-        <f t="array" aca="1" ref="J13" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A13))</f>
-        <v>7.9351103540757988</v>
+        <f t="array" aca="1" ref="J13" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="K13" cm="1">
-        <f t="array" aca="1" ref="K13" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A13))</f>
-        <v>7.437311978628812</v>
+        <f t="array" aca="1" ref="K13" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="L13" cm="1">
-        <f t="array" aca="1" ref="L13" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A13))</f>
-        <v>0.19230769230769232</v>
+        <f t="array" aca="1" ref="L13" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A13)))))</f>
+        <v>1</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" cm="1">
-        <f t="array" aca="1" ref="N13" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A13))</f>
-        <v>0.84702752098250922</v>
+        <f t="array" aca="1" ref="N13" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A13)))))</f>
+        <v>16</v>
       </c>
       <c r="O13" cm="1">
-        <f t="array" aca="1" ref="O13" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A13))</f>
-        <v>0.61658536699543831</v>
+        <f t="array" aca="1" ref="O13" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A13)))))</f>
+        <v>13</v>
       </c>
       <c r="P13" cm="1">
-        <f t="array" aca="1" ref="P13" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A13))</f>
-        <v>8.6558117425852625</v>
+        <f t="array" aca="1" ref="P13" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="Q13" cm="1">
-        <f t="array" aca="1" ref="Q13" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A13))</f>
-        <v>8.6558117425852625</v>
+        <f t="array" aca="1" ref="Q13" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="R13" cm="1">
-        <f t="array" aca="1" ref="R13" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A13))</f>
-        <v>8.6558117425852625</v>
+        <f t="array" aca="1" ref="R13" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="S13" cm="1">
-        <f t="array" aca="1" ref="S13" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A13))</f>
-        <v>8.6558117425852625</v>
+        <f t="array" aca="1" ref="S13" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="T13" cm="1">
-        <f t="array" aca="1" ref="T13" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A13))</f>
-        <v>8.8022320999180881</v>
+        <f t="array" aca="1" ref="T13" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="U13" cm="1">
-        <f t="array" aca="1" ref="U13" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A13))</f>
-        <v>7.9144837642412202</v>
+        <f t="array" aca="1" ref="U13" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="V13" cm="1">
-        <f t="array" aca="1" ref="V13" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A13))</f>
-        <v>7.8755106906824306</v>
+        <f t="array" aca="1" ref="V13" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="W13" cm="1">
-        <f t="array" aca="1" ref="W13" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A13))</f>
-        <v>7.9351103540757988</v>
+        <f t="array" aca="1" ref="W13" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
       </c>
       <c r="X13" cm="1">
-        <f t="array" aca="1" ref="X13" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A13))</f>
-        <v>7.437311978628812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X13" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A13)))))</f>
+        <v>24</v>
+      </c>
+      <c r="Y13" cm="1">
+        <f t="array" aca="1" ref="Y13" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A13)))))</f>
+        <v>23</v>
+      </c>
+      <c r="Z13" cm="1">
+        <f t="array" aca="1" ref="Z13" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A13)))))</f>
+        <v>23</v>
+      </c>
+      <c r="AA13" cm="1">
+        <f t="array" aca="1" ref="AA13" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A13)))))</f>
+        <v>23</v>
+      </c>
+      <c r="AB13" cm="1">
+        <f t="array" aca="1" ref="AB13" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A13) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A13)))))</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="B14" cm="1">
-        <f t="array" aca="1" ref="B14" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A14))</f>
-        <v>10.563207890917681</v>
+        <f t="array" aca="1" ref="B14" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="C14" cm="1">
-        <f t="array" aca="1" ref="C14" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A14))</f>
-        <v>10.563207890917681</v>
+        <f t="array" aca="1" ref="C14" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="D14" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A14))</f>
-        <v>9.2952873470326534</v>
+        <f t="array" aca="1" ref="D14" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="E14" cm="1">
-        <f t="array" aca="1" ref="E14" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A14))</f>
-        <v>9.2952873470326534</v>
+        <f t="array" aca="1" ref="E14" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="F14" cm="1">
-        <f t="array" aca="1" ref="F14" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A14))</f>
-        <v>8.1124675763613858</v>
+        <f t="array" aca="1" ref="F14" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="G14" cm="1">
-        <f t="array" aca="1" ref="G14" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A14))</f>
-        <v>9.4663058658360573</v>
+        <f t="array" aca="1" ref="G14" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="H14" cm="1">
-        <f t="array" aca="1" ref="H14" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A14))</f>
-        <v>8.5841638976947081</v>
+        <f t="array" aca="1" ref="H14" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="I14" cm="1">
-        <f t="array" aca="1" ref="I14" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A14))</f>
-        <v>8.5482445687462985</v>
+        <f t="array" aca="1" ref="I14" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="J14" cm="1">
-        <f t="array" aca="1" ref="J14" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A14))</f>
-        <v>8.6071389111996091</v>
+        <f t="array" aca="1" ref="J14" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="K14" cm="1">
-        <f t="array" aca="1" ref="K14" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A14))</f>
-        <v>8.1124675763613858</v>
+        <f t="array" aca="1" ref="K14" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="L14" cm="1">
-        <f t="array" aca="1" ref="L14" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A14))</f>
-        <v>0.81770352405651148</v>
+        <f t="array" aca="1" ref="L14" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A14)))))</f>
+        <v>15</v>
       </c>
       <c r="M14" cm="1">
-        <f t="array" aca="1" ref="M14" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A14))</f>
-        <v>0.84702752098250922</v>
+        <f t="array" aca="1" ref="M14" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A14)))))</f>
+        <v>16</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" cm="1">
-        <f t="array" aca="1" ref="O14" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A14))</f>
-        <v>0.49851851526214308</v>
+        <f t="array" aca="1" ref="O14" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A14)))))</f>
+        <v>12</v>
       </c>
       <c r="P14" cm="1">
-        <f t="array" aca="1" ref="P14" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A14))</f>
-        <v>9.3246032007839883</v>
+        <f t="array" aca="1" ref="P14" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="Q14" cm="1">
-        <f t="array" aca="1" ref="Q14" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A14))</f>
-        <v>9.3246032007839883</v>
+        <f t="array" aca="1" ref="Q14" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="R14" cm="1">
-        <f t="array" aca="1" ref="R14" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A14))</f>
-        <v>9.3246032007839883</v>
+        <f t="array" aca="1" ref="R14" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="S14" cm="1">
-        <f t="array" aca="1" ref="S14" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A14))</f>
-        <v>9.3246032007839883</v>
+        <f t="array" aca="1" ref="S14" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="T14" cm="1">
-        <f t="array" aca="1" ref="T14" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A14))</f>
-        <v>9.4663058658360573</v>
+        <f t="array" aca="1" ref="T14" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="U14" cm="1">
-        <f t="array" aca="1" ref="U14" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A14))</f>
-        <v>8.5841638976947081</v>
+        <f t="array" aca="1" ref="U14" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="V14" cm="1">
-        <f t="array" aca="1" ref="V14" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A14))</f>
-        <v>8.5482445687462985</v>
+        <f t="array" aca="1" ref="V14" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="W14" cm="1">
-        <f t="array" aca="1" ref="W14" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A14))</f>
-        <v>8.6071389111996091</v>
+        <f t="array" aca="1" ref="W14" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
       </c>
       <c r="X14" cm="1">
-        <f t="array" aca="1" ref="X14" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A14))</f>
-        <v>8.1124675763613858</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X14" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A14)))))</f>
+        <v>24</v>
+      </c>
+      <c r="Y14" cm="1">
+        <f t="array" aca="1" ref="Y14" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A14)))))</f>
+        <v>23</v>
+      </c>
+      <c r="Z14" cm="1">
+        <f t="array" aca="1" ref="Z14" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A14)))))</f>
+        <v>23</v>
+      </c>
+      <c r="AA14" cm="1">
+        <f t="array" aca="1" ref="AA14" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A14)))))</f>
+        <v>23</v>
+      </c>
+      <c r="AB14" cm="1">
+        <f t="array" aca="1" ref="AB14" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A14) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A14)))))</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" cm="1">
-        <f t="array" aca="1" ref="B15" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A15))</f>
-        <v>10.392376017540014</v>
+        <f t="array" aca="1" ref="B15" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="C15" cm="1">
-        <f t="array" aca="1" ref="C15" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A15))</f>
-        <v>10.392376017540014</v>
+        <f t="array" aca="1" ref="C15" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="D15" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A15))</f>
-        <v>9.1227655933387819</v>
+        <f t="array" aca="1" ref="D15" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="E15" cm="1">
-        <f t="array" aca="1" ref="E15" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A15))</f>
-        <v>9.1227655933387819</v>
+        <f t="array" aca="1" ref="E15" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="F15" cm="1">
-        <f t="array" aca="1" ref="F15" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A15))</f>
-        <v>7.9399558820111853</v>
+        <f t="array" aca="1" ref="F15" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="G15" cm="1">
-        <f t="array" aca="1" ref="G15" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A15))</f>
-        <v>9.3026846032961021</v>
+        <f t="array" aca="1" ref="G15" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="H15" cm="1">
-        <f t="array" aca="1" ref="H15" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A15))</f>
-        <v>8.4139395468606057</v>
+        <f t="array" aca="1" ref="H15" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="I15" cm="1">
-        <f t="array" aca="1" ref="I15" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A15))</f>
-        <v>8.3726979526265701</v>
+        <f t="array" aca="1" ref="I15" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="J15" cm="1">
-        <f t="array" aca="1" ref="J15" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A15))</f>
-        <v>8.434923176537108</v>
+        <f t="array" aca="1" ref="J15" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="K15" cm="1">
-        <f t="array" aca="1" ref="K15" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A15))</f>
-        <v>7.9399558820111853</v>
+        <f t="array" aca="1" ref="K15" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="L15" cm="1">
-        <f t="array" aca="1" ref="L15" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A15))</f>
-        <v>0.60569291338552389</v>
+        <f t="array" aca="1" ref="L15" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A15)))))</f>
+        <v>12</v>
       </c>
       <c r="M15" cm="1">
-        <f t="array" aca="1" ref="M15" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A15))</f>
-        <v>0.61658536699543831</v>
+        <f t="array" aca="1" ref="M15" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A15)))))</f>
+        <v>13</v>
       </c>
       <c r="N15" cm="1">
-        <f t="array" aca="1" ref="N15" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A15))</f>
-        <v>0.49851851526214308</v>
+        <f t="array" aca="1" ref="N15" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A15)))))</f>
+        <v>12</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" cm="1">
-        <f t="array" aca="1" ref="P15" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A15))</f>
-        <v>9.1523107956083027</v>
+        <f t="array" aca="1" ref="P15" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="Q15" cm="1">
-        <f t="array" aca="1" ref="Q15" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A15))</f>
-        <v>9.1523107956083027</v>
+        <f t="array" aca="1" ref="Q15" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="R15" cm="1">
-        <f t="array" aca="1" ref="R15" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A15))</f>
-        <v>9.1523107956083027</v>
+        <f t="array" aca="1" ref="R15" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="S15" cm="1">
-        <f t="array" aca="1" ref="S15" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A15))</f>
-        <v>9.1523107956083027</v>
+        <f t="array" aca="1" ref="S15" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="T15" cm="1">
-        <f t="array" aca="1" ref="T15" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A15))</f>
-        <v>9.3026846032961021</v>
+        <f t="array" aca="1" ref="T15" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="U15" cm="1">
-        <f t="array" aca="1" ref="U15" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A15))</f>
-        <v>8.4139395468606057</v>
+        <f t="array" aca="1" ref="U15" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="V15" cm="1">
-        <f t="array" aca="1" ref="V15" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A15))</f>
-        <v>8.3726979526265701</v>
+        <f t="array" aca="1" ref="V15" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="W15" cm="1">
-        <f t="array" aca="1" ref="W15" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A15))</f>
-        <v>8.434923176537108</v>
+        <f t="array" aca="1" ref="W15" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
       </c>
       <c r="X15" cm="1">
-        <f t="array" aca="1" ref="X15" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A15))</f>
-        <v>7.9399558820111853</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X15" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A15)))))</f>
+        <v>24</v>
+      </c>
+      <c r="Y15" cm="1">
+        <f t="array" aca="1" ref="Y15" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A15)))))</f>
+        <v>23</v>
+      </c>
+      <c r="Z15" cm="1">
+        <f t="array" aca="1" ref="Z15" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A15)))))</f>
+        <v>23</v>
+      </c>
+      <c r="AA15" cm="1">
+        <f t="array" aca="1" ref="AA15" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A15)))))</f>
+        <v>23</v>
+      </c>
+      <c r="AB15" cm="1">
+        <f t="array" aca="1" ref="AB15" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A15) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A15)))))</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" cm="1">
-        <f t="array" aca="1" ref="B16" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A16))</f>
-        <v>1.2917581249035897</v>
+        <f t="array" aca="1" ref="B16" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A16)))))</f>
+        <v>20</v>
       </c>
       <c r="C16" cm="1">
-        <f t="array" aca="1" ref="C16" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A16))</f>
-        <v>1.2917581249035897</v>
+        <f t="array" aca="1" ref="C16" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A16)))))</f>
+        <v>20</v>
       </c>
       <c r="D16" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A16))</f>
-        <v>0.49404740687173576</v>
+        <f t="array" aca="1" ref="D16" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A16)))))</f>
+        <v>11</v>
       </c>
       <c r="E16" cm="1">
-        <f t="array" aca="1" ref="E16" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A16))</f>
-        <v>0.49404740687173576</v>
+        <f t="array" aca="1" ref="E16" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A16)))))</f>
+        <v>11</v>
       </c>
       <c r="F16" cm="1">
-        <f t="array" aca="1" ref="F16" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A16))</f>
-        <v>1.2733034890189885</v>
+        <f t="array" aca="1" ref="F16" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A16)))))</f>
+        <v>19</v>
       </c>
       <c r="G16" cm="1">
-        <f t="array" aca="1" ref="G16" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A16))</f>
-        <v>0.49851851526214314</v>
+        <f t="array" aca="1" ref="G16" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A16)))))</f>
+        <v>12</v>
       </c>
       <c r="H16" cm="1">
-        <f t="array" aca="1" ref="H16" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A16))</f>
-        <v>0.84615384615384637</v>
+        <f t="array" aca="1" ref="H16" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A16)))))</f>
+        <v>16</v>
       </c>
       <c r="I16" cm="1">
-        <f t="array" aca="1" ref="I16" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A16))</f>
-        <v>0.89044899252232523</v>
+        <f t="array" aca="1" ref="I16" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A16)))))</f>
+        <v>16</v>
       </c>
       <c r="J16" cm="1">
-        <f t="array" aca="1" ref="J16" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A16))</f>
-        <v>0.81134704268188418</v>
+        <f t="array" aca="1" ref="J16" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A16)))))</f>
+        <v>16</v>
       </c>
       <c r="K16" cm="1">
-        <f t="array" aca="1" ref="K16" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A16))</f>
-        <v>1.2733034890189885</v>
+        <f t="array" aca="1" ref="K16" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A16)))))</f>
+        <v>19</v>
       </c>
       <c r="L16" cm="1">
-        <f t="array" aca="1" ref="L16" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A16))</f>
-        <v>8.6845608773924834</v>
+        <f t="array" aca="1" ref="L16" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A16)))))</f>
+        <v>24</v>
       </c>
       <c r="M16" cm="1">
-        <f t="array" aca="1" ref="M16" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A16))</f>
-        <v>8.6558117425852625</v>
+        <f t="array" aca="1" ref="M16" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A16)))))</f>
+        <v>24</v>
       </c>
       <c r="N16" cm="1">
-        <f t="array" aca="1" ref="N16" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A16))</f>
-        <v>9.3246032007839883</v>
+        <f t="array" aca="1" ref="N16" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A16)))))</f>
+        <v>24</v>
       </c>
       <c r="O16" cm="1">
-        <f t="array" aca="1" ref="O16" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A16))</f>
-        <v>9.1523107956083027</v>
+        <f t="array" aca="1" ref="O16" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A16)))))</f>
+        <v>24</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" cm="1">
-        <f t="array" aca="1" ref="Q16" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A16))</f>
+        <f t="array" aca="1" ref="Q16" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A16)))))</f>
         <v>0</v>
       </c>
       <c r="R16" cm="1">
-        <f t="array" aca="1" ref="R16" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A16))</f>
+        <f t="array" aca="1" ref="R16" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A16)))))</f>
         <v>0</v>
       </c>
       <c r="S16" cm="1">
-        <f t="array" aca="1" ref="S16" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A16))</f>
+        <f t="array" aca="1" ref="S16" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A16)))))</f>
         <v>0</v>
       </c>
       <c r="T16" cm="1">
-        <f t="array" aca="1" ref="T16" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A16))</f>
-        <v>0.49851851526214314</v>
+        <f t="array" aca="1" ref="T16" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A16)))))</f>
+        <v>12</v>
       </c>
       <c r="U16" cm="1">
-        <f t="array" aca="1" ref="U16" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A16))</f>
-        <v>0.84615384615384637</v>
+        <f t="array" aca="1" ref="U16" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A16)))))</f>
+        <v>16</v>
       </c>
       <c r="V16" cm="1">
-        <f t="array" aca="1" ref="V16" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A16))</f>
-        <v>0.89044899252232523</v>
+        <f t="array" aca="1" ref="V16" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A16)))))</f>
+        <v>16</v>
       </c>
       <c r="W16" cm="1">
-        <f t="array" aca="1" ref="W16" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A16))</f>
-        <v>0.81134704268188418</v>
+        <f t="array" aca="1" ref="W16" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A16)))))</f>
+        <v>16</v>
       </c>
       <c r="X16" cm="1">
-        <f t="array" aca="1" ref="X16" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A16))</f>
-        <v>1.2733034890189885</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X16" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A16)))))</f>
+        <v>19</v>
+      </c>
+      <c r="Y16" cm="1">
+        <f t="array" aca="1" ref="Y16" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A16)))))</f>
+        <v>2</v>
+      </c>
+      <c r="Z16" cm="1">
+        <f t="array" aca="1" ref="Z16" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A16)))))</f>
+        <v>1</v>
+      </c>
+      <c r="AA16" cm="1">
+        <f t="array" aca="1" ref="AA16" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A16)))))</f>
+        <v>1</v>
+      </c>
+      <c r="AB16" cm="1">
+        <f t="array" aca="1" ref="AB16" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A16) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A16)))))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" cm="1">
-        <f t="array" aca="1" ref="B17" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A17))</f>
-        <v>1.2917581249035897</v>
+        <f t="array" aca="1" ref="B17" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A17)))))</f>
+        <v>20</v>
       </c>
       <c r="C17" cm="1">
-        <f t="array" aca="1" ref="C17" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A17))</f>
-        <v>1.2917581249035897</v>
+        <f t="array" aca="1" ref="C17" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A17)))))</f>
+        <v>20</v>
       </c>
       <c r="D17" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A17))</f>
-        <v>0.49404740687173576</v>
+        <f t="array" aca="1" ref="D17" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A17)))))</f>
+        <v>11</v>
       </c>
       <c r="E17" cm="1">
-        <f t="array" aca="1" ref="E17" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A17))</f>
-        <v>0.49404740687173576</v>
+        <f t="array" aca="1" ref="E17" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A17)))))</f>
+        <v>11</v>
       </c>
       <c r="F17" cm="1">
-        <f t="array" aca="1" ref="F17" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A17))</f>
-        <v>1.273303489018988</v>
+        <f t="array" aca="1" ref="F17" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A17)))))</f>
+        <v>19</v>
       </c>
       <c r="G17" cm="1">
-        <f t="array" aca="1" ref="G17" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A17))</f>
-        <v>0.49851851526214314</v>
+        <f t="array" aca="1" ref="G17" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A17)))))</f>
+        <v>12</v>
       </c>
       <c r="H17" cm="1">
-        <f t="array" aca="1" ref="H17" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A17))</f>
-        <v>0.84615384615384615</v>
+        <f t="array" aca="1" ref="H17" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A17)))))</f>
+        <v>16</v>
       </c>
       <c r="I17" cm="1">
-        <f t="array" aca="1" ref="I17" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A17))</f>
-        <v>0.89044899252232523</v>
+        <f t="array" aca="1" ref="I17" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A17)))))</f>
+        <v>16</v>
       </c>
       <c r="J17" cm="1">
-        <f t="array" aca="1" ref="J17" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A17))</f>
-        <v>0.81134704268188418</v>
+        <f t="array" aca="1" ref="J17" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A17)))))</f>
+        <v>16</v>
       </c>
       <c r="K17" cm="1">
-        <f t="array" aca="1" ref="K17" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A17))</f>
-        <v>1.2733034890189885</v>
+        <f t="array" aca="1" ref="K17" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A17)))))</f>
+        <v>19</v>
       </c>
       <c r="L17" cm="1">
-        <f t="array" aca="1" ref="L17" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A17))</f>
-        <v>8.6845608773924834</v>
+        <f t="array" aca="1" ref="L17" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A17)))))</f>
+        <v>24</v>
       </c>
       <c r="M17" cm="1">
-        <f t="array" aca="1" ref="M17" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A17))</f>
-        <v>8.6558117425852625</v>
+        <f t="array" aca="1" ref="M17" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A17)))))</f>
+        <v>24</v>
       </c>
       <c r="N17" cm="1">
-        <f t="array" aca="1" ref="N17" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A17))</f>
-        <v>9.3246032007839883</v>
+        <f t="array" aca="1" ref="N17" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A17)))))</f>
+        <v>24</v>
       </c>
       <c r="O17" cm="1">
-        <f t="array" aca="1" ref="O17" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A17))</f>
-        <v>9.1523107956083027</v>
+        <f t="array" aca="1" ref="O17" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A17)))))</f>
+        <v>24</v>
       </c>
       <c r="P17" cm="1">
-        <f t="array" aca="1" ref="P17" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A17))</f>
+        <f t="array" aca="1" ref="P17" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A17)))))</f>
         <v>0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" cm="1">
-        <f t="array" aca="1" ref="R17" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A17))</f>
+        <f t="array" aca="1" ref="R17" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A17)))))</f>
         <v>0</v>
       </c>
       <c r="S17" cm="1">
-        <f t="array" aca="1" ref="S17" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A17))</f>
+        <f t="array" aca="1" ref="S17" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A17)))))</f>
         <v>0</v>
       </c>
       <c r="T17" cm="1">
-        <f t="array" aca="1" ref="T17" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A17))</f>
-        <v>0.49851851526214314</v>
+        <f t="array" aca="1" ref="T17" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A17)))))</f>
+        <v>12</v>
       </c>
       <c r="U17" cm="1">
-        <f t="array" aca="1" ref="U17" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A17))</f>
-        <v>0.84615384615384615</v>
+        <f t="array" aca="1" ref="U17" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A17)))))</f>
+        <v>16</v>
       </c>
       <c r="V17" cm="1">
-        <f t="array" aca="1" ref="V17" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A17))</f>
-        <v>0.89044899252232523</v>
+        <f t="array" aca="1" ref="V17" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A17)))))</f>
+        <v>16</v>
       </c>
       <c r="W17" cm="1">
-        <f t="array" aca="1" ref="W17" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A17))</f>
-        <v>0.81134704268188418</v>
+        <f t="array" aca="1" ref="W17" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A17)))))</f>
+        <v>16</v>
       </c>
       <c r="X17" cm="1">
-        <f t="array" aca="1" ref="X17" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A17))</f>
-        <v>1.2733034890189885</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X17" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A17)))))</f>
+        <v>19</v>
+      </c>
+      <c r="Y17" cm="1">
+        <f t="array" aca="1" ref="Y17" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A17)))))</f>
+        <v>2</v>
+      </c>
+      <c r="Z17" cm="1">
+        <f t="array" aca="1" ref="Z17" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A17)))))</f>
+        <v>1</v>
+      </c>
+      <c r="AA17" cm="1">
+        <f t="array" aca="1" ref="AA17" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A17)))))</f>
+        <v>1</v>
+      </c>
+      <c r="AB17" cm="1">
+        <f t="array" aca="1" ref="AB17" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A17) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A17)))))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18" cm="1">
-        <f t="array" aca="1" ref="B18" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A18))</f>
-        <v>1.2917581249035897</v>
+        <f t="array" aca="1" ref="B18" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A18)))))</f>
+        <v>20</v>
       </c>
       <c r="C18" cm="1">
-        <f t="array" aca="1" ref="C18" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A18))</f>
-        <v>1.2917581249035897</v>
+        <f t="array" aca="1" ref="C18" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A18)))))</f>
+        <v>20</v>
       </c>
       <c r="D18" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A18))</f>
-        <v>0.49404740687173576</v>
+        <f t="array" aca="1" ref="D18" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A18)))))</f>
+        <v>11</v>
       </c>
       <c r="E18" cm="1">
-        <f t="array" aca="1" ref="E18" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A18))</f>
-        <v>0.49404740687173576</v>
+        <f t="array" aca="1" ref="E18" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A18)))))</f>
+        <v>11</v>
       </c>
       <c r="F18" cm="1">
-        <f t="array" aca="1" ref="F18" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A18))</f>
-        <v>1.273303489018988</v>
+        <f t="array" aca="1" ref="F18" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A18)))))</f>
+        <v>19</v>
       </c>
       <c r="G18" cm="1">
-        <f t="array" aca="1" ref="G18" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A18))</f>
-        <v>0.49851851526214308</v>
+        <f t="array" aca="1" ref="G18" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A18)))))</f>
+        <v>12</v>
       </c>
       <c r="H18" cm="1">
-        <f t="array" aca="1" ref="H18" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A18))</f>
-        <v>0.84615384615384615</v>
+        <f t="array" aca="1" ref="H18" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A18)))))</f>
+        <v>16</v>
       </c>
       <c r="I18" cm="1">
-        <f t="array" aca="1" ref="I18" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A18))</f>
-        <v>0.89044899252232523</v>
+        <f t="array" aca="1" ref="I18" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A18)))))</f>
+        <v>16</v>
       </c>
       <c r="J18" cm="1">
-        <f t="array" aca="1" ref="J18" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A18))</f>
-        <v>0.81134704268188418</v>
+        <f t="array" aca="1" ref="J18" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A18)))))</f>
+        <v>16</v>
       </c>
       <c r="K18" cm="1">
-        <f t="array" aca="1" ref="K18" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A18))</f>
-        <v>1.273303489018988</v>
+        <f t="array" aca="1" ref="K18" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A18)))))</f>
+        <v>19</v>
       </c>
       <c r="L18" cm="1">
-        <f t="array" aca="1" ref="L18" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A18))</f>
-        <v>8.6845608773924834</v>
+        <f t="array" aca="1" ref="L18" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A18)))))</f>
+        <v>24</v>
       </c>
       <c r="M18" cm="1">
-        <f t="array" aca="1" ref="M18" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A18))</f>
-        <v>8.6558117425852625</v>
+        <f t="array" aca="1" ref="M18" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A18)))))</f>
+        <v>24</v>
       </c>
       <c r="N18" cm="1">
-        <f t="array" aca="1" ref="N18" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A18))</f>
-        <v>9.3246032007839883</v>
+        <f t="array" aca="1" ref="N18" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A18)))))</f>
+        <v>24</v>
       </c>
       <c r="O18" cm="1">
-        <f t="array" aca="1" ref="O18" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A18))</f>
-        <v>9.1523107956083027</v>
+        <f t="array" aca="1" ref="O18" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A18)))))</f>
+        <v>24</v>
       </c>
       <c r="P18" cm="1">
-        <f t="array" aca="1" ref="P18" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A18))</f>
+        <f t="array" aca="1" ref="P18" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A18)))))</f>
         <v>0</v>
       </c>
       <c r="Q18" cm="1">
-        <f t="array" aca="1" ref="Q18" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A18))</f>
+        <f t="array" aca="1" ref="Q18" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A18)))))</f>
         <v>0</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" cm="1">
-        <f t="array" aca="1" ref="S18" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A18))</f>
+        <f t="array" aca="1" ref="S18" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A18)))))</f>
         <v>0</v>
       </c>
       <c r="T18" cm="1">
-        <f t="array" aca="1" ref="T18" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A18))</f>
-        <v>0.49851851526214308</v>
+        <f t="array" aca="1" ref="T18" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A18)))))</f>
+        <v>12</v>
       </c>
       <c r="U18" cm="1">
-        <f t="array" aca="1" ref="U18" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A18))</f>
-        <v>0.84615384615384615</v>
+        <f t="array" aca="1" ref="U18" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A18)))))</f>
+        <v>16</v>
       </c>
       <c r="V18" cm="1">
-        <f t="array" aca="1" ref="V18" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A18))</f>
-        <v>0.89044899252232523</v>
+        <f t="array" aca="1" ref="V18" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A18)))))</f>
+        <v>16</v>
       </c>
       <c r="W18" cm="1">
-        <f t="array" aca="1" ref="W18" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A18))</f>
-        <v>0.81134704268188418</v>
+        <f t="array" aca="1" ref="W18" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A18)))))</f>
+        <v>16</v>
       </c>
       <c r="X18" cm="1">
-        <f t="array" aca="1" ref="X18" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A18))</f>
-        <v>1.273303489018988</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X18" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A18)))))</f>
+        <v>19</v>
+      </c>
+      <c r="Y18" cm="1">
+        <f t="array" aca="1" ref="Y18" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A18)))))</f>
+        <v>2</v>
+      </c>
+      <c r="Z18" cm="1">
+        <f t="array" aca="1" ref="Z18" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A18)))))</f>
+        <v>1</v>
+      </c>
+      <c r="AA18" cm="1">
+        <f t="array" aca="1" ref="AA18" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A18)))))</f>
+        <v>1</v>
+      </c>
+      <c r="AB18" cm="1">
+        <f t="array" aca="1" ref="AB18" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A18) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A18)))))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19" cm="1">
-        <f t="array" aca="1" ref="B19" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A19))</f>
-        <v>1.2917581249035897</v>
+        <f t="array" aca="1" ref="B19" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A19)))))</f>
+        <v>20</v>
       </c>
       <c r="C19" cm="1">
-        <f t="array" aca="1" ref="C19" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A19))</f>
-        <v>1.2917581249035897</v>
+        <f t="array" aca="1" ref="C19" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A19)))))</f>
+        <v>20</v>
       </c>
       <c r="D19" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A19))</f>
-        <v>0.49404740687173576</v>
+        <f t="array" aca="1" ref="D19" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A19)))))</f>
+        <v>11</v>
       </c>
       <c r="E19" cm="1">
-        <f t="array" aca="1" ref="E19" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A19))</f>
-        <v>0.49404740687173576</v>
+        <f t="array" aca="1" ref="E19" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A19)))))</f>
+        <v>11</v>
       </c>
       <c r="F19" cm="1">
-        <f t="array" aca="1" ref="F19" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A19))</f>
-        <v>1.2733034890189885</v>
+        <f t="array" aca="1" ref="F19" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A19)))))</f>
+        <v>19</v>
       </c>
       <c r="G19" cm="1">
-        <f t="array" aca="1" ref="G19" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A19))</f>
-        <v>0.49851851526214308</v>
+        <f t="array" aca="1" ref="G19" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A19)))))</f>
+        <v>12</v>
       </c>
       <c r="H19" cm="1">
-        <f t="array" aca="1" ref="H19" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A19))</f>
-        <v>0.84615384615384615</v>
+        <f t="array" aca="1" ref="H19" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A19)))))</f>
+        <v>16</v>
       </c>
       <c r="I19" cm="1">
-        <f t="array" aca="1" ref="I19" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A19))</f>
-        <v>0.89044899252232501</v>
+        <f t="array" aca="1" ref="I19" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A19)))))</f>
+        <v>16</v>
       </c>
       <c r="J19" cm="1">
-        <f t="array" aca="1" ref="J19" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A19))</f>
-        <v>0.81134704268188418</v>
+        <f t="array" aca="1" ref="J19" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A19)))))</f>
+        <v>16</v>
       </c>
       <c r="K19" cm="1">
-        <f t="array" aca="1" ref="K19" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A19))</f>
-        <v>1.273303489018988</v>
+        <f t="array" aca="1" ref="K19" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A19)))))</f>
+        <v>19</v>
       </c>
       <c r="L19" cm="1">
-        <f t="array" aca="1" ref="L19" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A19))</f>
-        <v>8.6845608773924834</v>
+        <f t="array" aca="1" ref="L19" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A19)))))</f>
+        <v>24</v>
       </c>
       <c r="M19" cm="1">
-        <f t="array" aca="1" ref="M19" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A19))</f>
-        <v>8.6558117425852625</v>
+        <f t="array" aca="1" ref="M19" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A19)))))</f>
+        <v>24</v>
       </c>
       <c r="N19" cm="1">
-        <f t="array" aca="1" ref="N19" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A19))</f>
-        <v>9.3246032007839883</v>
+        <f t="array" aca="1" ref="N19" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A19)))))</f>
+        <v>24</v>
       </c>
       <c r="O19" cm="1">
-        <f t="array" aca="1" ref="O19" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A19))</f>
-        <v>9.1523107956083027</v>
+        <f t="array" aca="1" ref="O19" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A19)))))</f>
+        <v>24</v>
       </c>
       <c r="P19" cm="1">
-        <f t="array" aca="1" ref="P19" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A19))</f>
+        <f t="array" aca="1" ref="P19" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A19)))))</f>
         <v>0</v>
       </c>
       <c r="Q19" cm="1">
-        <f t="array" aca="1" ref="Q19" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A19))</f>
+        <f t="array" aca="1" ref="Q19" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A19)))))</f>
         <v>0</v>
       </c>
       <c r="R19" cm="1">
-        <f t="array" aca="1" ref="R19" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A19))</f>
+        <f t="array" aca="1" ref="R19" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A19)))))</f>
         <v>0</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" cm="1">
-        <f t="array" aca="1" ref="T19" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A19))</f>
-        <v>0.49851851526214308</v>
+        <f t="array" aca="1" ref="T19" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A19)))))</f>
+        <v>12</v>
       </c>
       <c r="U19" cm="1">
-        <f t="array" aca="1" ref="U19" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A19))</f>
-        <v>0.84615384615384615</v>
+        <f t="array" aca="1" ref="U19" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A19)))))</f>
+        <v>16</v>
       </c>
       <c r="V19" cm="1">
-        <f t="array" aca="1" ref="V19" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A19))</f>
-        <v>0.89044899252232501</v>
+        <f t="array" aca="1" ref="V19" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A19)))))</f>
+        <v>16</v>
       </c>
       <c r="W19" cm="1">
-        <f t="array" aca="1" ref="W19" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A19))</f>
-        <v>0.81134704268188418</v>
+        <f t="array" aca="1" ref="W19" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A19)))))</f>
+        <v>16</v>
       </c>
       <c r="X19" cm="1">
-        <f t="array" aca="1" ref="X19" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A19))</f>
-        <v>1.273303489018988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X19" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A19)))))</f>
+        <v>19</v>
+      </c>
+      <c r="Y19" cm="1">
+        <f t="array" aca="1" ref="Y19" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A19)))))</f>
+        <v>2</v>
+      </c>
+      <c r="Z19" cm="1">
+        <f t="array" aca="1" ref="Z19" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A19)))))</f>
+        <v>1</v>
+      </c>
+      <c r="AA19" cm="1">
+        <f t="array" aca="1" ref="AA19" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A19)))))</f>
+        <v>1</v>
+      </c>
+      <c r="AB19" cm="1">
+        <f t="array" aca="1" ref="AB19" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A19) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A19)))))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20" cm="1">
-        <f t="array" aca="1" ref="B20" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A20))</f>
-        <v>1.1461280327501031</v>
+        <f t="array" aca="1" ref="B20" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A20)))))</f>
+        <v>18</v>
       </c>
       <c r="C20" cm="1">
-        <f t="array" aca="1" ref="C20" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A20))</f>
-        <v>1.1461280327501031</v>
+        <f t="array" aca="1" ref="C20" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A20)))))</f>
+        <v>18</v>
       </c>
       <c r="D20" cm="1">
-        <f t="array" aca="1" ref="D20" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A20))</f>
-        <v>0.31948553318915673</v>
+        <f t="array" aca="1" ref="D20" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A20)))))</f>
+        <v>3</v>
       </c>
       <c r="E20" cm="1">
-        <f t="array" aca="1" ref="E20" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A20))</f>
-        <v>0.31948553318915673</v>
+        <f t="array" aca="1" ref="E20" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A20)))))</f>
+        <v>3</v>
       </c>
       <c r="F20" cm="1">
-        <f t="array" aca="1" ref="F20" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A20))</f>
-        <v>1.4121199808219862</v>
+        <f t="array" aca="1" ref="F20" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A20)))))</f>
+        <v>20</v>
       </c>
       <c r="G20" cm="1">
-        <f t="array" aca="1" ref="G20" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A20))</f>
+        <f t="array" aca="1" ref="G20" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A20)))))</f>
         <v>0</v>
       </c>
       <c r="H20" cm="1">
-        <f t="array" aca="1" ref="H20" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A20))</f>
-        <v>0.95148591360407553</v>
+        <f t="array" aca="1" ref="H20" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A20)))))</f>
+        <v>17</v>
       </c>
       <c r="I20" cm="1">
-        <f t="array" aca="1" ref="I20" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A20))</f>
-        <v>1.0291606277122809</v>
+        <f t="array" aca="1" ref="I20" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A20)))))</f>
+        <v>16</v>
       </c>
       <c r="J20" cm="1">
-        <f t="array" aca="1" ref="J20" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A20))</f>
-        <v>0.94289620554855869</v>
+        <f t="array" aca="1" ref="J20" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A20)))))</f>
+        <v>16</v>
       </c>
       <c r="K20" cm="1">
-        <f t="array" aca="1" ref="K20" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A20))</f>
-        <v>1.4121199808219862</v>
+        <f t="array" aca="1" ref="K20" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A20)))))</f>
+        <v>20</v>
       </c>
       <c r="L20" cm="1">
-        <f t="array" aca="1" ref="L20" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A20))</f>
-        <v>8.8328495271475536</v>
+        <f t="array" aca="1" ref="L20" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A20)))))</f>
+        <v>24</v>
       </c>
       <c r="M20" cm="1">
-        <f t="array" aca="1" ref="M20" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A20))</f>
-        <v>8.8022320999180881</v>
+        <f t="array" aca="1" ref="M20" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A20)))))</f>
+        <v>24</v>
       </c>
       <c r="N20" cm="1">
-        <f t="array" aca="1" ref="N20" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A20))</f>
-        <v>9.4663058658360573</v>
+        <f t="array" aca="1" ref="N20" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A20)))))</f>
+        <v>24</v>
       </c>
       <c r="O20" cm="1">
-        <f t="array" aca="1" ref="O20" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A20))</f>
-        <v>9.3026846032961021</v>
+        <f t="array" aca="1" ref="O20" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A20)))))</f>
+        <v>24</v>
       </c>
       <c r="P20" cm="1">
-        <f t="array" aca="1" ref="P20" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A20))</f>
-        <v>0.49851851526214314</v>
+        <f t="array" aca="1" ref="P20" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A20)))))</f>
+        <v>12</v>
       </c>
       <c r="Q20" cm="1">
-        <f t="array" aca="1" ref="Q20" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A20))</f>
-        <v>0.49851851526214314</v>
+        <f t="array" aca="1" ref="Q20" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A20)))))</f>
+        <v>12</v>
       </c>
       <c r="R20" cm="1">
-        <f t="array" aca="1" ref="R20" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A20))</f>
-        <v>0.49851851526214308</v>
+        <f t="array" aca="1" ref="R20" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A20)))))</f>
+        <v>12</v>
       </c>
       <c r="S20" cm="1">
-        <f t="array" aca="1" ref="S20" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A20))</f>
-        <v>0.49851851526214308</v>
+        <f t="array" aca="1" ref="S20" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A20)))))</f>
+        <v>12</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" cm="1">
-        <f t="array" aca="1" ref="U20" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A20))</f>
-        <v>0.95148591360407553</v>
+        <f t="array" aca="1" ref="U20" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A20)))))</f>
+        <v>17</v>
       </c>
       <c r="V20" cm="1">
-        <f t="array" aca="1" ref="V20" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A20))</f>
-        <v>1.0291606277122809</v>
+        <f t="array" aca="1" ref="V20" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A20)))))</f>
+        <v>16</v>
       </c>
       <c r="W20" cm="1">
-        <f t="array" aca="1" ref="W20" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A20))</f>
-        <v>0.94289620554855869</v>
+        <f t="array" aca="1" ref="W20" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A20)))))</f>
+        <v>16</v>
       </c>
       <c r="X20" cm="1">
-        <f t="array" aca="1" ref="X20" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A20))</f>
-        <v>1.4121199808219862</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X20" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A20)))))</f>
+        <v>20</v>
+      </c>
+      <c r="Y20" cm="1">
+        <f t="array" aca="1" ref="Y20" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A20)))))</f>
+        <v>12</v>
+      </c>
+      <c r="Z20" cm="1">
+        <f t="array" aca="1" ref="Z20" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A20)))))</f>
+        <v>11</v>
+      </c>
+      <c r="AA20" cm="1">
+        <f t="array" aca="1" ref="AA20" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A20)))))</f>
+        <v>11</v>
+      </c>
+      <c r="AB20" cm="1">
+        <f t="array" aca="1" ref="AB20" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A20) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A20)))))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21" cm="1">
-        <f t="array" aca="1" ref="B21" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A21))</f>
-        <v>2.0176733920929233</v>
+        <f t="array" aca="1" ref="B21" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A21)))))</f>
+        <v>21</v>
       </c>
       <c r="C21" cm="1">
-        <f t="array" aca="1" ref="C21" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A21))</f>
-        <v>2.0176733920929233</v>
+        <f t="array" aca="1" ref="C21" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A21)))))</f>
+        <v>21</v>
       </c>
       <c r="D21" cm="1">
-        <f t="array" aca="1" ref="D21" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A21))</f>
-        <v>0.78540684064085142</v>
+        <f t="array" aca="1" ref="D21" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A21)))))</f>
+        <v>15</v>
       </c>
       <c r="E21" cm="1">
-        <f t="array" aca="1" ref="E21" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A21))</f>
-        <v>0.78540684064085142</v>
+        <f t="array" aca="1" ref="E21" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A21)))))</f>
+        <v>15</v>
       </c>
       <c r="F21" cm="1">
-        <f t="array" aca="1" ref="F21" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A21))</f>
-        <v>0.624926031125843</v>
+        <f t="array" aca="1" ref="F21" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A21)))))</f>
+        <v>14</v>
       </c>
       <c r="G21" cm="1">
-        <f t="array" aca="1" ref="G21" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A21))</f>
-        <v>0.95148591360407553</v>
+        <f t="array" aca="1" ref="G21" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A21)))))</f>
+        <v>17</v>
       </c>
       <c r="H21" cm="1">
-        <f t="array" aca="1" ref="H21" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A21))</f>
+        <f t="array" aca="1" ref="H21" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A21)))))</f>
         <v>0</v>
       </c>
       <c r="I21" cm="1">
-        <f t="array" aca="1" ref="I21" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A21))</f>
-        <v>0.27735009811261457</v>
+        <f t="array" aca="1" ref="I21" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A21)))))</f>
+        <v>2</v>
       </c>
       <c r="J21" cm="1">
-        <f t="array" aca="1" ref="J21" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A21))</f>
-        <v>0.19230769230769226</v>
+        <f t="array" aca="1" ref="J21" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A21)))))</f>
+        <v>1</v>
       </c>
       <c r="K21" cm="1">
-        <f t="array" aca="1" ref="K21" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A21))</f>
-        <v>0.624926031125843</v>
+        <f t="array" aca="1" ref="K21" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A21)))))</f>
+        <v>14</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A21))</f>
-        <v>7.9421912824398726</v>
+        <f t="array" aca="1" ref="L21" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A21)))))</f>
+        <v>24</v>
       </c>
       <c r="M21" cm="1">
-        <f t="array" aca="1" ref="M21" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A21))</f>
-        <v>7.9144837642412202</v>
+        <f t="array" aca="1" ref="M21" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A21)))))</f>
+        <v>24</v>
       </c>
       <c r="N21" cm="1">
-        <f t="array" aca="1" ref="N21" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A21))</f>
-        <v>8.5841638976947081</v>
+        <f t="array" aca="1" ref="N21" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A21)))))</f>
+        <v>24</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A21))</f>
-        <v>8.4139395468606057</v>
+        <f t="array" aca="1" ref="O21" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A21)))))</f>
+        <v>24</v>
       </c>
       <c r="P21" cm="1">
-        <f t="array" aca="1" ref="P21" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A21))</f>
-        <v>0.84615384615384637</v>
+        <f t="array" aca="1" ref="P21" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A21)))))</f>
+        <v>16</v>
       </c>
       <c r="Q21" cm="1">
-        <f t="array" aca="1" ref="Q21" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A21))</f>
-        <v>0.84615384615384615</v>
+        <f t="array" aca="1" ref="Q21" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A21)))))</f>
+        <v>16</v>
       </c>
       <c r="R21" cm="1">
-        <f t="array" aca="1" ref="R21" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A21))</f>
-        <v>0.84615384615384615</v>
+        <f t="array" aca="1" ref="R21" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A21)))))</f>
+        <v>16</v>
       </c>
       <c r="S21" cm="1">
-        <f t="array" aca="1" ref="S21" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A21))</f>
-        <v>0.84615384615384615</v>
+        <f t="array" aca="1" ref="S21" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A21)))))</f>
+        <v>16</v>
       </c>
       <c r="T21" cm="1">
-        <f t="array" aca="1" ref="T21" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A21))</f>
-        <v>0.95148591360407553</v>
+        <f t="array" aca="1" ref="T21" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A21)))))</f>
+        <v>17</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" cm="1">
-        <f t="array" aca="1" ref="V21" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A21))</f>
-        <v>0.27735009811261457</v>
+        <f t="array" aca="1" ref="V21" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A21)))))</f>
+        <v>2</v>
       </c>
       <c r="W21" cm="1">
-        <f t="array" aca="1" ref="W21" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A21))</f>
-        <v>0.19230769230769226</v>
+        <f t="array" aca="1" ref="W21" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A21)))))</f>
+        <v>1</v>
       </c>
       <c r="X21" cm="1">
-        <f t="array" aca="1" ref="X21" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A21))</f>
-        <v>0.624926031125843</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X21" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A21)))))</f>
+        <v>14</v>
+      </c>
+      <c r="Y21" cm="1">
+        <f t="array" aca="1" ref="Y21" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A21)))))</f>
+        <v>16</v>
+      </c>
+      <c r="Z21" cm="1">
+        <f t="array" aca="1" ref="Z21" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A21)))))</f>
+        <v>17</v>
+      </c>
+      <c r="AA21" cm="1">
+        <f t="array" aca="1" ref="AA21" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A21)))))</f>
+        <v>17</v>
+      </c>
+      <c r="AB21" cm="1">
+        <f t="array" aca="1" ref="AB21" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A21) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A21)))))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22" cm="1">
-        <f t="array" aca="1" ref="B22" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A22))</f>
-        <v>2.0554444947519057</v>
+        <f t="array" aca="1" ref="B22" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A22)))))</f>
+        <v>22</v>
       </c>
       <c r="C22" cm="1">
-        <f t="array" aca="1" ref="C22" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A22))</f>
-        <v>2.0554444947519057</v>
+        <f t="array" aca="1" ref="C22" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A22)))))</f>
+        <v>22</v>
       </c>
       <c r="D22" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A22))</f>
-        <v>0.8329387626041429</v>
+        <f t="array" aca="1" ref="D22" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A22)))))</f>
+        <v>16</v>
       </c>
       <c r="E22" cm="1">
-        <f t="array" aca="1" ref="E22" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A22))</f>
-        <v>0.8329387626041429</v>
+        <f t="array" aca="1" ref="E22" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A22)))))</f>
+        <v>16</v>
       </c>
       <c r="F22" cm="1">
-        <f t="array" aca="1" ref="F22" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A22))</f>
-        <v>0.56000845302157831</v>
+        <f t="array" aca="1" ref="F22" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A22)))))</f>
+        <v>12</v>
       </c>
       <c r="G22" cm="1">
-        <f t="array" aca="1" ref="G22" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A22))</f>
-        <v>1.0291606277122809</v>
+        <f t="array" aca="1" ref="G22" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A22)))))</f>
+        <v>16</v>
       </c>
       <c r="H22" cm="1">
-        <f t="array" aca="1" ref="H22" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A22))</f>
-        <v>0.27735009811261457</v>
+        <f t="array" aca="1" ref="H22" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A22)))))</f>
+        <v>2</v>
       </c>
       <c r="I22" cm="1">
-        <f t="array" aca="1" ref="I22" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A22))</f>
+        <f t="array" aca="1" ref="I22" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A22)))))</f>
         <v>0</v>
       </c>
       <c r="J22" cm="1">
-        <f t="array" aca="1" ref="J22" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A22))</f>
-        <v>0.19230769230769229</v>
+        <f t="array" aca="1" ref="J22" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A22)))))</f>
+        <v>1</v>
       </c>
       <c r="K22" cm="1">
-        <f t="array" aca="1" ref="K22" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A22))</f>
-        <v>0.56000845302157831</v>
+        <f t="array" aca="1" ref="K22" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A22)))))</f>
+        <v>12</v>
       </c>
       <c r="L22" cm="1">
-        <f t="array" aca="1" ref="L22" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A22))</f>
-        <v>7.9033548415517378</v>
+        <f t="array" aca="1" ref="L22" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A22)))))</f>
+        <v>24</v>
       </c>
       <c r="M22" cm="1">
-        <f t="array" aca="1" ref="M22" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A22))</f>
-        <v>7.8755106906824306</v>
+        <f t="array" aca="1" ref="M22" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A22)))))</f>
+        <v>24</v>
       </c>
       <c r="N22" cm="1">
-        <f t="array" aca="1" ref="N22" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A22))</f>
-        <v>8.5482445687462985</v>
+        <f t="array" aca="1" ref="N22" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A22)))))</f>
+        <v>24</v>
       </c>
       <c r="O22" cm="1">
-        <f t="array" aca="1" ref="O22" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A22))</f>
-        <v>8.3726979526265701</v>
+        <f t="array" aca="1" ref="O22" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A22)))))</f>
+        <v>24</v>
       </c>
       <c r="P22" cm="1">
-        <f t="array" aca="1" ref="P22" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A22))</f>
-        <v>0.89044899252232523</v>
+        <f t="array" aca="1" ref="P22" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A22)))))</f>
+        <v>16</v>
       </c>
       <c r="Q22" cm="1">
-        <f t="array" aca="1" ref="Q22" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A22))</f>
-        <v>0.89044899252232523</v>
+        <f t="array" aca="1" ref="Q22" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A22)))))</f>
+        <v>16</v>
       </c>
       <c r="R22" cm="1">
-        <f t="array" aca="1" ref="R22" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A22))</f>
-        <v>0.89044899252232523</v>
+        <f t="array" aca="1" ref="R22" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A22)))))</f>
+        <v>16</v>
       </c>
       <c r="S22" cm="1">
-        <f t="array" aca="1" ref="S22" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A22))</f>
-        <v>0.89044899252232501</v>
+        <f t="array" aca="1" ref="S22" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A22)))))</f>
+        <v>16</v>
       </c>
       <c r="T22" cm="1">
-        <f t="array" aca="1" ref="T22" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A22))</f>
-        <v>1.0291606277122809</v>
+        <f t="array" aca="1" ref="T22" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A22)))))</f>
+        <v>16</v>
       </c>
       <c r="U22" cm="1">
-        <f t="array" aca="1" ref="U22" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A22))</f>
-        <v>0.27735009811261457</v>
+        <f t="array" aca="1" ref="U22" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A22)))))</f>
+        <v>2</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" cm="1">
-        <f t="array" aca="1" ref="W22" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A22))</f>
-        <v>0.19230769230769229</v>
+        <f t="array" aca="1" ref="W22" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A22)))))</f>
+        <v>1</v>
       </c>
       <c r="X22" cm="1">
-        <f t="array" aca="1" ref="X22" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A22))</f>
-        <v>0.56000845302157831</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X22" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A22)))))</f>
+        <v>12</v>
+      </c>
+      <c r="Y22" cm="1">
+        <f t="array" aca="1" ref="Y22" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A22)))))</f>
+        <v>15</v>
+      </c>
+      <c r="Z22" cm="1">
+        <f t="array" aca="1" ref="Z22" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A22)))))</f>
+        <v>16</v>
+      </c>
+      <c r="AA22" cm="1">
+        <f t="array" aca="1" ref="AA22" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A22)))))</f>
+        <v>16</v>
+      </c>
+      <c r="AB22" cm="1">
+        <f t="array" aca="1" ref="AB22" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A22) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A22)))))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23" cm="1">
-        <f t="array" aca="1" ref="B23" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A23))</f>
-        <v>1.9870140543214601</v>
+        <f t="array" aca="1" ref="B23" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A23)))))</f>
+        <v>22</v>
       </c>
       <c r="C23" cm="1">
-        <f t="array" aca="1" ref="C23" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A23))</f>
-        <v>1.9870140543214601</v>
+        <f t="array" aca="1" ref="C23" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A23)))))</f>
+        <v>22</v>
       </c>
       <c r="D23" cm="1">
-        <f t="array" aca="1" ref="D23" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A23))</f>
-        <v>0.76923076923076927</v>
+        <f t="array" aca="1" ref="D23" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A23)))))</f>
+        <v>16</v>
       </c>
       <c r="E23" cm="1">
-        <f t="array" aca="1" ref="E23" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A23))</f>
-        <v>0.76923076923076927</v>
+        <f t="array" aca="1" ref="E23" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A23)))))</f>
+        <v>16</v>
       </c>
       <c r="F23" cm="1">
-        <f t="array" aca="1" ref="F23" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A23))</f>
-        <v>0.61658536699543831</v>
+        <f t="array" aca="1" ref="F23" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A23)))))</f>
+        <v>13</v>
       </c>
       <c r="G23" cm="1">
-        <f t="array" aca="1" ref="G23" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A23))</f>
-        <v>0.94289620554855869</v>
+        <f t="array" aca="1" ref="G23" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A23)))))</f>
+        <v>16</v>
       </c>
       <c r="H23" cm="1">
-        <f t="array" aca="1" ref="H23" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A23))</f>
-        <v>0.19230769230769226</v>
+        <f t="array" aca="1" ref="H23" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A23)))))</f>
+        <v>1</v>
       </c>
       <c r="I23" cm="1">
-        <f t="array" aca="1" ref="I23" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A23))</f>
-        <v>0.19230769230769229</v>
+        <f t="array" aca="1" ref="I23" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A23)))))</f>
+        <v>1</v>
       </c>
       <c r="J23" cm="1">
-        <f t="array" aca="1" ref="J23" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A23))</f>
+        <f t="array" aca="1" ref="J23" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A23)))))</f>
         <v>0</v>
       </c>
       <c r="K23" cm="1">
-        <f t="array" aca="1" ref="K23" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A23))</f>
-        <v>0.61658536699543831</v>
+        <f t="array" aca="1" ref="K23" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A23)))))</f>
+        <v>13</v>
       </c>
       <c r="L23" cm="1">
-        <f t="array" aca="1" ref="L23" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A23))</f>
-        <v>7.9629318736046359</v>
+        <f t="array" aca="1" ref="L23" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A23)))))</f>
+        <v>24</v>
       </c>
       <c r="M23" cm="1">
-        <f t="array" aca="1" ref="M23" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A23))</f>
-        <v>7.9351103540757988</v>
+        <f t="array" aca="1" ref="M23" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A23)))))</f>
+        <v>24</v>
       </c>
       <c r="N23" cm="1">
-        <f t="array" aca="1" ref="N23" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A23))</f>
-        <v>8.6071389111996091</v>
+        <f t="array" aca="1" ref="N23" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A23)))))</f>
+        <v>24</v>
       </c>
       <c r="O23" cm="1">
-        <f t="array" aca="1" ref="O23" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A23))</f>
-        <v>8.434923176537108</v>
+        <f t="array" aca="1" ref="O23" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A23)))))</f>
+        <v>24</v>
       </c>
       <c r="P23" cm="1">
-        <f t="array" aca="1" ref="P23" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A23))</f>
-        <v>0.81134704268188418</v>
+        <f t="array" aca="1" ref="P23" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A23)))))</f>
+        <v>16</v>
       </c>
       <c r="Q23" cm="1">
-        <f t="array" aca="1" ref="Q23" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A23))</f>
-        <v>0.81134704268188418</v>
+        <f t="array" aca="1" ref="Q23" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A23)))))</f>
+        <v>16</v>
       </c>
       <c r="R23" cm="1">
-        <f t="array" aca="1" ref="R23" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A23))</f>
-        <v>0.81134704268188418</v>
+        <f t="array" aca="1" ref="R23" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A23)))))</f>
+        <v>16</v>
       </c>
       <c r="S23" cm="1">
-        <f t="array" aca="1" ref="S23" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A23))</f>
-        <v>0.81134704268188418</v>
+        <f t="array" aca="1" ref="S23" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A23)))))</f>
+        <v>16</v>
       </c>
       <c r="T23" cm="1">
-        <f t="array" aca="1" ref="T23" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A23))</f>
-        <v>0.94289620554855869</v>
+        <f t="array" aca="1" ref="T23" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A23)))))</f>
+        <v>16</v>
       </c>
       <c r="U23" cm="1">
-        <f t="array" aca="1" ref="U23" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A23))</f>
-        <v>0.19230769230769226</v>
+        <f t="array" aca="1" ref="U23" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A23)))))</f>
+        <v>1</v>
       </c>
       <c r="V23" cm="1">
-        <f t="array" aca="1" ref="V23" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A23))</f>
-        <v>0.19230769230769229</v>
+        <f t="array" aca="1" ref="V23" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A23)))))</f>
+        <v>1</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" cm="1">
-        <f t="array" aca="1" ref="X23" ca="1">_xlfn.STDEV.P(INDIRECT(X$1)-INDIRECT($A23))</f>
-        <v>0.61658536699543831</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+        <f t="array" aca="1" ref="X23" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A23)))))</f>
+        <v>13</v>
+      </c>
+      <c r="Y23" cm="1">
+        <f t="array" aca="1" ref="Y23" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A23)))))</f>
+        <v>15</v>
+      </c>
+      <c r="Z23" cm="1">
+        <f t="array" aca="1" ref="Z23" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A23)))))</f>
+        <v>16</v>
+      </c>
+      <c r="AA23" cm="1">
+        <f t="array" aca="1" ref="AA23" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A23)))))</f>
+        <v>16</v>
+      </c>
+      <c r="AB23" cm="1">
+        <f t="array" aca="1" ref="AB23" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A23) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A23)))))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24" cm="1">
-        <f t="array" aca="1" ref="B24" ca="1">_xlfn.STDEV.P(INDIRECT(B$1)-INDIRECT($A24))</f>
-        <v>2.468739467058648</v>
+        <f t="array" aca="1" ref="B24" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A24)))))</f>
+        <v>22</v>
       </c>
       <c r="C24" cm="1">
-        <f t="array" aca="1" ref="C24" ca="1">_xlfn.STDEV.P(INDIRECT(C$1)-INDIRECT($A24))</f>
-        <v>2.468739467058648</v>
+        <f t="array" aca="1" ref="C24" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A24)))))</f>
+        <v>22</v>
       </c>
       <c r="D24" cm="1">
-        <f t="array" aca="1" ref="D24" ca="1">_xlfn.STDEV.P(INDIRECT(D$1)-INDIRECT($A24))</f>
-        <v>1.2409435234539752</v>
+        <f t="array" aca="1" ref="D24" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A24)))))</f>
+        <v>19</v>
       </c>
       <c r="E24" cm="1">
-        <f t="array" aca="1" ref="E24" ca="1">_xlfn.STDEV.P(INDIRECT(E$1)-INDIRECT($A24))</f>
-        <v>1.2409435234539752</v>
+        <f t="array" aca="1" ref="E24" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A24)))))</f>
+        <v>19</v>
       </c>
       <c r="F24" cm="1">
-        <f t="array" aca="1" ref="F24" ca="1">_xlfn.STDEV.P(INDIRECT(F$1)-INDIRECT($A24))</f>
+        <f t="array" aca="1" ref="F24" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A24)))))</f>
         <v>0</v>
       </c>
       <c r="G24" cm="1">
-        <f t="array" aca="1" ref="G24" ca="1">_xlfn.STDEV.P(INDIRECT(G$1)-INDIRECT($A24))</f>
-        <v>1.4121199808219862</v>
+        <f t="array" aca="1" ref="G24" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A24)))))</f>
+        <v>20</v>
       </c>
       <c r="H24" cm="1">
-        <f t="array" aca="1" ref="H24" ca="1">_xlfn.STDEV.P(INDIRECT(H$1)-INDIRECT($A24))</f>
-        <v>0.624926031125843</v>
+        <f t="array" aca="1" ref="H24" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A24)))))</f>
+        <v>14</v>
       </c>
       <c r="I24" cm="1">
-        <f t="array" aca="1" ref="I24" ca="1">_xlfn.STDEV.P(INDIRECT(I$1)-INDIRECT($A24))</f>
-        <v>0.56000845302157831</v>
+        <f t="array" aca="1" ref="I24" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A24)))))</f>
+        <v>12</v>
       </c>
       <c r="J24" cm="1">
-        <f t="array" aca="1" ref="J24" ca="1">_xlfn.STDEV.P(INDIRECT(J$1)-INDIRECT($A24))</f>
-        <v>0.61658536699543831</v>
+        <f t="array" aca="1" ref="J24" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A24)))))</f>
+        <v>13</v>
       </c>
       <c r="K24" cm="1">
-        <f t="array" aca="1" ref="K24" ca="1">_xlfn.STDEV.P(INDIRECT(K$1)-INDIRECT($A24))</f>
+        <f t="array" aca="1" ref="K24" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A24)))))</f>
         <v>0</v>
       </c>
       <c r="L24" cm="1">
-        <f t="array" aca="1" ref="L24" ca="1">_xlfn.STDEV.P(INDIRECT(L$1)-INDIRECT($A24))</f>
-        <v>7.4687712763679022</v>
+        <f t="array" aca="1" ref="L24" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A24)))))</f>
+        <v>24</v>
       </c>
       <c r="M24" cm="1">
-        <f t="array" aca="1" ref="M24" ca="1">_xlfn.STDEV.P(INDIRECT(M$1)-INDIRECT($A24))</f>
-        <v>7.437311978628812</v>
+        <f t="array" aca="1" ref="M24" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A24)))))</f>
+        <v>24</v>
       </c>
       <c r="N24" cm="1">
-        <f t="array" aca="1" ref="N24" ca="1">_xlfn.STDEV.P(INDIRECT(N$1)-INDIRECT($A24))</f>
-        <v>8.1124675763613858</v>
+        <f t="array" aca="1" ref="N24" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A24)))))</f>
+        <v>24</v>
       </c>
       <c r="O24" cm="1">
-        <f t="array" aca="1" ref="O24" ca="1">_xlfn.STDEV.P(INDIRECT(O$1)-INDIRECT($A24))</f>
-        <v>7.9399558820111853</v>
+        <f t="array" aca="1" ref="O24" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A24)))))</f>
+        <v>24</v>
       </c>
       <c r="P24" cm="1">
-        <f t="array" aca="1" ref="P24" ca="1">_xlfn.STDEV.P(INDIRECT(P$1)-INDIRECT($A24))</f>
-        <v>1.2733034890189885</v>
+        <f t="array" aca="1" ref="P24" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A24)))))</f>
+        <v>19</v>
       </c>
       <c r="Q24" cm="1">
-        <f t="array" aca="1" ref="Q24" ca="1">_xlfn.STDEV.P(INDIRECT(Q$1)-INDIRECT($A24))</f>
-        <v>1.2733034890189885</v>
+        <f t="array" aca="1" ref="Q24" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A24)))))</f>
+        <v>19</v>
       </c>
       <c r="R24" cm="1">
-        <f t="array" aca="1" ref="R24" ca="1">_xlfn.STDEV.P(INDIRECT(R$1)-INDIRECT($A24))</f>
-        <v>1.273303489018988</v>
+        <f t="array" aca="1" ref="R24" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A24)))))</f>
+        <v>19</v>
       </c>
       <c r="S24" cm="1">
-        <f t="array" aca="1" ref="S24" ca="1">_xlfn.STDEV.P(INDIRECT(S$1)-INDIRECT($A24))</f>
-        <v>1.273303489018988</v>
+        <f t="array" aca="1" ref="S24" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A24)))))</f>
+        <v>19</v>
       </c>
       <c r="T24" cm="1">
-        <f t="array" aca="1" ref="T24" ca="1">_xlfn.STDEV.P(INDIRECT(T$1)-INDIRECT($A24))</f>
-        <v>1.4121199808219862</v>
+        <f t="array" aca="1" ref="T24" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A24)))))</f>
+        <v>20</v>
       </c>
       <c r="U24" cm="1">
-        <f t="array" aca="1" ref="U24" ca="1">_xlfn.STDEV.P(INDIRECT(U$1)-INDIRECT($A24))</f>
-        <v>0.624926031125843</v>
+        <f t="array" aca="1" ref="U24" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A24)))))</f>
+        <v>14</v>
       </c>
       <c r="V24" cm="1">
-        <f t="array" aca="1" ref="V24" ca="1">_xlfn.STDEV.P(INDIRECT(V$1)-INDIRECT($A24))</f>
-        <v>0.56000845302157831</v>
+        <f t="array" aca="1" ref="V24" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A24)))))</f>
+        <v>12</v>
       </c>
       <c r="W24" cm="1">
-        <f t="array" aca="1" ref="W24" ca="1">_xlfn.STDEV.P(INDIRECT(W$1)-INDIRECT($A24))</f>
-        <v>0.61658536699543831</v>
+        <f t="array" aca="1" ref="W24" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A24)))))</f>
+        <v>13</v>
       </c>
       <c r="X24" s="2"/>
+      <c r="Y24" cm="1">
+        <f t="array" aca="1" ref="Y24" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A24)))))</f>
+        <v>19</v>
+      </c>
+      <c r="Z24" cm="1">
+        <f t="array" aca="1" ref="Z24" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A24)))))</f>
+        <v>20</v>
+      </c>
+      <c r="AA24" cm="1">
+        <f t="array" aca="1" ref="AA24" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A24)))))</f>
+        <v>20</v>
+      </c>
+      <c r="AB24" cm="1">
+        <f t="array" aca="1" ref="AB24" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A24) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A24)))))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" cm="1">
+        <f t="array" aca="1" ref="B25" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A25)))))</f>
+        <v>18</v>
+      </c>
+      <c r="C25" cm="1">
+        <f t="array" aca="1" ref="C25" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A25)))))</f>
+        <v>18</v>
+      </c>
+      <c r="D25" cm="1">
+        <f t="array" aca="1" ref="D25" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A25)))))</f>
+        <v>11</v>
+      </c>
+      <c r="E25" cm="1">
+        <f t="array" aca="1" ref="E25" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A25)))))</f>
+        <v>11</v>
+      </c>
+      <c r="F25" cm="1">
+        <f t="array" aca="1" ref="F25" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A25)))))</f>
+        <v>19</v>
+      </c>
+      <c r="G25" cm="1">
+        <f t="array" aca="1" ref="G25" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A25)))))</f>
+        <v>12</v>
+      </c>
+      <c r="H25" cm="1">
+        <f t="array" aca="1" ref="H25" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A25)))))</f>
+        <v>16</v>
+      </c>
+      <c r="I25" cm="1">
+        <f t="array" aca="1" ref="I25" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A25)))))</f>
+        <v>15</v>
+      </c>
+      <c r="J25" cm="1">
+        <f t="array" aca="1" ref="J25" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A25)))))</f>
+        <v>15</v>
+      </c>
+      <c r="K25" cm="1">
+        <f t="array" aca="1" ref="K25" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A25)))))</f>
+        <v>19</v>
+      </c>
+      <c r="L25" cm="1">
+        <f t="array" aca="1" ref="L25" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A25)))))</f>
+        <v>23</v>
+      </c>
+      <c r="M25" cm="1">
+        <f t="array" aca="1" ref="M25" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A25)))))</f>
+        <v>23</v>
+      </c>
+      <c r="N25" cm="1">
+        <f t="array" aca="1" ref="N25" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A25)))))</f>
+        <v>23</v>
+      </c>
+      <c r="O25" cm="1">
+        <f t="array" aca="1" ref="O25" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A25)))))</f>
+        <v>23</v>
+      </c>
+      <c r="P25" cm="1">
+        <f t="array" aca="1" ref="P25" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A25)))))</f>
+        <v>2</v>
+      </c>
+      <c r="Q25" cm="1">
+        <f t="array" aca="1" ref="Q25" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A25)))))</f>
+        <v>2</v>
+      </c>
+      <c r="R25" cm="1">
+        <f t="array" aca="1" ref="R25" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A25)))))</f>
+        <v>2</v>
+      </c>
+      <c r="S25" cm="1">
+        <f t="array" aca="1" ref="S25" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A25)))))</f>
+        <v>2</v>
+      </c>
+      <c r="T25" cm="1">
+        <f t="array" aca="1" ref="T25" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A25)))))</f>
+        <v>12</v>
+      </c>
+      <c r="U25" cm="1">
+        <f t="array" aca="1" ref="U25" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A25)))))</f>
+        <v>16</v>
+      </c>
+      <c r="V25" cm="1">
+        <f t="array" aca="1" ref="V25" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A25)))))</f>
+        <v>15</v>
+      </c>
+      <c r="W25" cm="1">
+        <f t="array" aca="1" ref="W25" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A25)))))</f>
+        <v>15</v>
+      </c>
+      <c r="X25" cm="1">
+        <f t="array" aca="1" ref="X25" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A25)))))</f>
+        <v>19</v>
+      </c>
+      <c r="Y25" s="2"/>
+      <c r="Z25" cm="1">
+        <f t="array" aca="1" ref="Z25" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A25)))))</f>
+        <v>1</v>
+      </c>
+      <c r="AA25" cm="1">
+        <f t="array" aca="1" ref="AA25" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A25)))))</f>
+        <v>1</v>
+      </c>
+      <c r="AB25" cm="1">
+        <f t="array" aca="1" ref="AB25" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A25) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A25)))))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" cm="1">
+        <f t="array" aca="1" ref="B26" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A26)))))</f>
+        <v>19</v>
+      </c>
+      <c r="C26" cm="1">
+        <f t="array" aca="1" ref="C26" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A26)))))</f>
+        <v>19</v>
+      </c>
+      <c r="D26" cm="1">
+        <f t="array" aca="1" ref="D26" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A26)))))</f>
+        <v>12</v>
+      </c>
+      <c r="E26" cm="1">
+        <f t="array" aca="1" ref="E26" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A26)))))</f>
+        <v>12</v>
+      </c>
+      <c r="F26" cm="1">
+        <f t="array" aca="1" ref="F26" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A26)))))</f>
+        <v>20</v>
+      </c>
+      <c r="G26" cm="1">
+        <f t="array" aca="1" ref="G26" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A26)))))</f>
+        <v>11</v>
+      </c>
+      <c r="H26" cm="1">
+        <f t="array" aca="1" ref="H26" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A26)))))</f>
+        <v>17</v>
+      </c>
+      <c r="I26" cm="1">
+        <f t="array" aca="1" ref="I26" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A26)))))</f>
+        <v>16</v>
+      </c>
+      <c r="J26" cm="1">
+        <f t="array" aca="1" ref="J26" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A26)))))</f>
+        <v>16</v>
+      </c>
+      <c r="K26" cm="1">
+        <f t="array" aca="1" ref="K26" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A26)))))</f>
+        <v>20</v>
+      </c>
+      <c r="L26" cm="1">
+        <f t="array" aca="1" ref="L26" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A26)))))</f>
+        <v>23</v>
+      </c>
+      <c r="M26" cm="1">
+        <f t="array" aca="1" ref="M26" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A26)))))</f>
+        <v>23</v>
+      </c>
+      <c r="N26" cm="1">
+        <f t="array" aca="1" ref="N26" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A26)))))</f>
+        <v>23</v>
+      </c>
+      <c r="O26" cm="1">
+        <f t="array" aca="1" ref="O26" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A26)))))</f>
+        <v>23</v>
+      </c>
+      <c r="P26" cm="1">
+        <f t="array" aca="1" ref="P26" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A26)))))</f>
+        <v>1</v>
+      </c>
+      <c r="Q26" cm="1">
+        <f t="array" aca="1" ref="Q26" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A26)))))</f>
+        <v>1</v>
+      </c>
+      <c r="R26" cm="1">
+        <f t="array" aca="1" ref="R26" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A26)))))</f>
+        <v>1</v>
+      </c>
+      <c r="S26" cm="1">
+        <f t="array" aca="1" ref="S26" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A26)))))</f>
+        <v>1</v>
+      </c>
+      <c r="T26" cm="1">
+        <f t="array" aca="1" ref="T26" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A26)))))</f>
+        <v>11</v>
+      </c>
+      <c r="U26" cm="1">
+        <f t="array" aca="1" ref="U26" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A26)))))</f>
+        <v>17</v>
+      </c>
+      <c r="V26" cm="1">
+        <f t="array" aca="1" ref="V26" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A26)))))</f>
+        <v>16</v>
+      </c>
+      <c r="W26" cm="1">
+        <f t="array" aca="1" ref="W26" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A26)))))</f>
+        <v>16</v>
+      </c>
+      <c r="X26" cm="1">
+        <f t="array" aca="1" ref="X26" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A26)))))</f>
+        <v>20</v>
+      </c>
+      <c r="Y26" cm="1">
+        <f t="array" aca="1" ref="Y26" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A26)))))</f>
+        <v>1</v>
+      </c>
+      <c r="Z26" s="2"/>
+      <c r="AA26" cm="1">
+        <f t="array" aca="1" ref="AA26" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A26)))))</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" cm="1">
+        <f t="array" aca="1" ref="AB26" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A26) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A26)))))</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" cm="1">
+        <f t="array" aca="1" ref="B27" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A27)))))</f>
+        <v>19</v>
+      </c>
+      <c r="C27" cm="1">
+        <f t="array" aca="1" ref="C27" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A27)))))</f>
+        <v>19</v>
+      </c>
+      <c r="D27" cm="1">
+        <f t="array" aca="1" ref="D27" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A27)))))</f>
+        <v>12</v>
+      </c>
+      <c r="E27" cm="1">
+        <f t="array" aca="1" ref="E27" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A27)))))</f>
+        <v>12</v>
+      </c>
+      <c r="F27" cm="1">
+        <f t="array" aca="1" ref="F27" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A27)))))</f>
+        <v>20</v>
+      </c>
+      <c r="G27" cm="1">
+        <f t="array" aca="1" ref="G27" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A27)))))</f>
+        <v>11</v>
+      </c>
+      <c r="H27" cm="1">
+        <f t="array" aca="1" ref="H27" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A27)))))</f>
+        <v>17</v>
+      </c>
+      <c r="I27" cm="1">
+        <f t="array" aca="1" ref="I27" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A27)))))</f>
+        <v>16</v>
+      </c>
+      <c r="J27" cm="1">
+        <f t="array" aca="1" ref="J27" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A27)))))</f>
+        <v>16</v>
+      </c>
+      <c r="K27" cm="1">
+        <f t="array" aca="1" ref="K27" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A27)))))</f>
+        <v>20</v>
+      </c>
+      <c r="L27" cm="1">
+        <f t="array" aca="1" ref="L27" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A27)))))</f>
+        <v>23</v>
+      </c>
+      <c r="M27" cm="1">
+        <f t="array" aca="1" ref="M27" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A27)))))</f>
+        <v>23</v>
+      </c>
+      <c r="N27" cm="1">
+        <f t="array" aca="1" ref="N27" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A27)))))</f>
+        <v>23</v>
+      </c>
+      <c r="O27" cm="1">
+        <f t="array" aca="1" ref="O27" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A27)))))</f>
+        <v>23</v>
+      </c>
+      <c r="P27" cm="1">
+        <f t="array" aca="1" ref="P27" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A27)))))</f>
+        <v>1</v>
+      </c>
+      <c r="Q27" cm="1">
+        <f t="array" aca="1" ref="Q27" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A27)))))</f>
+        <v>1</v>
+      </c>
+      <c r="R27" cm="1">
+        <f t="array" aca="1" ref="R27" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A27)))))</f>
+        <v>1</v>
+      </c>
+      <c r="S27" cm="1">
+        <f t="array" aca="1" ref="S27" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A27)))))</f>
+        <v>1</v>
+      </c>
+      <c r="T27" cm="1">
+        <f t="array" aca="1" ref="T27" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A27)))))</f>
+        <v>11</v>
+      </c>
+      <c r="U27" cm="1">
+        <f t="array" aca="1" ref="U27" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A27)))))</f>
+        <v>17</v>
+      </c>
+      <c r="V27" cm="1">
+        <f t="array" aca="1" ref="V27" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A27)))))</f>
+        <v>16</v>
+      </c>
+      <c r="W27" cm="1">
+        <f t="array" aca="1" ref="W27" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A27)))))</f>
+        <v>16</v>
+      </c>
+      <c r="X27" cm="1">
+        <f t="array" aca="1" ref="X27" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A27)))))</f>
+        <v>20</v>
+      </c>
+      <c r="Y27" cm="1">
+        <f t="array" aca="1" ref="Y27" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A27)))))</f>
+        <v>1</v>
+      </c>
+      <c r="Z27" cm="1">
+        <f t="array" aca="1" ref="Z27" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A27)))))</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2"/>
+      <c r="AB27" cm="1">
+        <f t="array" aca="1" ref="AB27" ca="1">SUM(SIGN(ABS(INDIRECT(AB$1)-INDIRECT($A27) - _xlfn.MODE.SNGL(INDIRECT(AB$1)-INDIRECT($A27)))))</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" cm="1">
+        <f t="array" aca="1" ref="B28" ca="1">SUM(SIGN(ABS(INDIRECT(B$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(B$1)-INDIRECT($A28)))))</f>
+        <v>22</v>
+      </c>
+      <c r="C28" cm="1">
+        <f t="array" aca="1" ref="C28" ca="1">SUM(SIGN(ABS(INDIRECT(C$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(C$1)-INDIRECT($A28)))))</f>
+        <v>22</v>
+      </c>
+      <c r="D28" cm="1">
+        <f t="array" aca="1" ref="D28" ca="1">SUM(SIGN(ABS(INDIRECT(D$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(D$1)-INDIRECT($A28)))))</f>
+        <v>19</v>
+      </c>
+      <c r="E28" cm="1">
+        <f t="array" aca="1" ref="E28" ca="1">SUM(SIGN(ABS(INDIRECT(E$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(E$1)-INDIRECT($A28)))))</f>
+        <v>19</v>
+      </c>
+      <c r="F28" cm="1">
+        <f t="array" aca="1" ref="F28" ca="1">SUM(SIGN(ABS(INDIRECT(F$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(F$1)-INDIRECT($A28)))))</f>
+        <v>9</v>
+      </c>
+      <c r="G28" cm="1">
+        <f t="array" aca="1" ref="G28" ca="1">SUM(SIGN(ABS(INDIRECT(G$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(G$1)-INDIRECT($A28)))))</f>
+        <v>19</v>
+      </c>
+      <c r="H28" cm="1">
+        <f t="array" aca="1" ref="H28" ca="1">SUM(SIGN(ABS(INDIRECT(H$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(H$1)-INDIRECT($A28)))))</f>
+        <v>9</v>
+      </c>
+      <c r="I28" cm="1">
+        <f t="array" aca="1" ref="I28" ca="1">SUM(SIGN(ABS(INDIRECT(I$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(I$1)-INDIRECT($A28)))))</f>
+        <v>9</v>
+      </c>
+      <c r="J28" cm="1">
+        <f t="array" aca="1" ref="J28" ca="1">SUM(SIGN(ABS(INDIRECT(J$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(J$1)-INDIRECT($A28)))))</f>
+        <v>10</v>
+      </c>
+      <c r="K28" cm="1">
+        <f t="array" aca="1" ref="K28" ca="1">SUM(SIGN(ABS(INDIRECT(K$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(K$1)-INDIRECT($A28)))))</f>
+        <v>9</v>
+      </c>
+      <c r="L28" cm="1">
+        <f t="array" aca="1" ref="L28" ca="1">SUM(SIGN(ABS(INDIRECT(L$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(L$1)-INDIRECT($A28)))))</f>
+        <v>23</v>
+      </c>
+      <c r="M28" cm="1">
+        <f t="array" aca="1" ref="M28" ca="1">SUM(SIGN(ABS(INDIRECT(M$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(M$1)-INDIRECT($A28)))))</f>
+        <v>23</v>
+      </c>
+      <c r="N28" cm="1">
+        <f t="array" aca="1" ref="N28" ca="1">SUM(SIGN(ABS(INDIRECT(N$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(N$1)-INDIRECT($A28)))))</f>
+        <v>23</v>
+      </c>
+      <c r="O28" cm="1">
+        <f t="array" aca="1" ref="O28" ca="1">SUM(SIGN(ABS(INDIRECT(O$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(O$1)-INDIRECT($A28)))))</f>
+        <v>23</v>
+      </c>
+      <c r="P28" cm="1">
+        <f t="array" aca="1" ref="P28" ca="1">SUM(SIGN(ABS(INDIRECT(P$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(P$1)-INDIRECT($A28)))))</f>
+        <v>19</v>
+      </c>
+      <c r="Q28" cm="1">
+        <f t="array" aca="1" ref="Q28" ca="1">SUM(SIGN(ABS(INDIRECT(Q$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(Q$1)-INDIRECT($A28)))))</f>
+        <v>19</v>
+      </c>
+      <c r="R28" cm="1">
+        <f t="array" aca="1" ref="R28" ca="1">SUM(SIGN(ABS(INDIRECT(R$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(R$1)-INDIRECT($A28)))))</f>
+        <v>19</v>
+      </c>
+      <c r="S28" cm="1">
+        <f t="array" aca="1" ref="S28" ca="1">SUM(SIGN(ABS(INDIRECT(S$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(S$1)-INDIRECT($A28)))))</f>
+        <v>19</v>
+      </c>
+      <c r="T28" cm="1">
+        <f t="array" aca="1" ref="T28" ca="1">SUM(SIGN(ABS(INDIRECT(T$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(T$1)-INDIRECT($A28)))))</f>
+        <v>19</v>
+      </c>
+      <c r="U28" cm="1">
+        <f t="array" aca="1" ref="U28" ca="1">SUM(SIGN(ABS(INDIRECT(U$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(U$1)-INDIRECT($A28)))))</f>
+        <v>9</v>
+      </c>
+      <c r="V28" cm="1">
+        <f t="array" aca="1" ref="V28" ca="1">SUM(SIGN(ABS(INDIRECT(V$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(V$1)-INDIRECT($A28)))))</f>
+        <v>9</v>
+      </c>
+      <c r="W28" cm="1">
+        <f t="array" aca="1" ref="W28" ca="1">SUM(SIGN(ABS(INDIRECT(W$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(W$1)-INDIRECT($A28)))))</f>
+        <v>10</v>
+      </c>
+      <c r="X28" cm="1">
+        <f t="array" aca="1" ref="X28" ca="1">SUM(SIGN(ABS(INDIRECT(X$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(X$1)-INDIRECT($A28)))))</f>
+        <v>9</v>
+      </c>
+      <c r="Y28" cm="1">
+        <f t="array" aca="1" ref="Y28" ca="1">SUM(SIGN(ABS(INDIRECT(Y$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(Y$1)-INDIRECT($A28)))))</f>
+        <v>19</v>
+      </c>
+      <c r="Z28" cm="1">
+        <f t="array" aca="1" ref="Z28" ca="1">SUM(SIGN(ABS(INDIRECT(Z$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(Z$1)-INDIRECT($A28)))))</f>
+        <v>20</v>
+      </c>
+      <c r="AA28" cm="1">
+        <f t="array" aca="1" ref="AA28" ca="1">SUM(SIGN(ABS(INDIRECT(AA$1)-INDIRECT($A28) - _xlfn.MODE.SNGL(INDIRECT(AA$1)-INDIRECT($A28)))))</f>
+        <v>20</v>
+      </c>
+      <c r="AB28" s="2"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B6:E6 B3 D3:F3 B4:C4 E4:F4 B5:D5 F5 C2:K2 G3:K6 B8:G8 B7:F7 H7:K7 B11:J11 B9:H9 J9:K9 I8:K8 B10:I10 K10 B14:M14 L2:O11 B12:K12 M12:O12 B13:L13 N13:O13 B15:N15 O14 P2:S15 B16:O19 P17 Q16:S16 P19:R19 P18:Q18 S18 R17:S17 B22:U22 T2:X19 B20:S20 U20:X20 B21:T21 V21:X21 B24:W24 B23:V23 X23 W22:X22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="B10:I10 C2:AB2 B3 D3:AB3 B4:C4 E4:AB4 B5:D5 F5:AB5 B6:E6 G6:AB6 B7:F7 H7:AB7 B8:G8 I8:AB8 B9:H9 J9:AB9 B28:AA28 B27:Z27 AB27 B26:Y26 AA26:AB26 B25:X25 Z25:AB25 B24:W24 Y24:AB24 B23:V23 X23:AB23 B22:U22 W22:AB22 B21:T21 V21:AB21 B20:S20 U20:AB20 B19:R19 T19:AB19 B18:Q18 S18:AB18 B17:P17 R17:AB17 B16:O16 Q16:AB16 B15:N15 P15:AB15 B14:M14 O14:AB14 B13:L13 N13:AB13 B12:K12 M12:AB12 B11:J11 L11:AB11 K10:AB10">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:I10 C2:AB2 B3 D3:AB3 B4:C4 E4:AB4 B5:D5 F5:AB5 B6:E6 G6:AB6 B7:F7 H7:AB7 B8:G8 I8:AB8 B9:H9 J9:AB9 B28:AA28 B27:Z27 AB27 B26:Y26 AA26:AB26 B25:X25 Z25:AB25 B24:W24 Y24:AB24 B23:V23 X23:AB23 B22:U22 W22:AB22 B21:T21 V21:AB21 B20:S20 U20:AB20 B19:R19 T19:AB19 B18:Q18 S18:AB18 B17:P17 R17:AB17 B16:O16 Q16:AB16 B15:N15 P15:AB15 B14:M14 O14:AB14 B13:L13 N13:AB13 B12:K12 M12:AB12 B11:J11 L11:AB11 K10:AB10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
